--- a/Industrials/Old Dominion Freight Line.xlsx
+++ b/Industrials/Old Dominion Freight Line.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Industrials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1DF5E0-3D5A-C942-B9A6-722B953A009D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDA111A-62DF-4C4C-91DD-D143050E0E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -1498,6 +1498,18 @@
     <xf numFmtId="0" fontId="25" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="9" fontId="19" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="9" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="9" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1511,18 +1523,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1543,1123 +1543,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="7.5899706771058159E-2"/>
-          <c:y val="8.6751549673312112E-2"/>
-          <c:w val="0.92410029322894183"/>
-          <c:h val="0.68121604480291031"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Model!$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Revenue</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Model!$B$9:$J$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2026</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2027</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Model!$B$10:$J$10</c:f>
-              <c:numCache>
-                <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>4109111000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4015129000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5256328000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6260077000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5830000000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6488000000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7157000000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7891000000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8562000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2277-284A-9469-5CB204A6C530}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Model!$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Net Income</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Model!$B$9:$J$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2026</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2027</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Model!$B$12:$J$12</c:f>
-              <c:numCache>
-                <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>615518000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>672682000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1034375000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1377159000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1184000000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1401000000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1645000000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1777000000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1912000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2277-284A-9469-5CB204A6C530}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Model!$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Model!$B$9:$J$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2026</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2027</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Model!$B$14:$J$14</c:f>
-              <c:numCache>
-                <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>504844632</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>710019188</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>663815615</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>917602980</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>834400000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1006000000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1178000000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1251000000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1314000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2277-284A-9469-5CB204A6C530}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="576288576"/>
-        <c:axId val="576290576"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="576288576"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="576290576"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="576290576"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="#,###,,;\(#,###,,\);\ \-\ \-" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="576288576"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.37318659482309513"/>
-          <c:y val="5.6197735921307716E-2"/>
-          <c:w val="0.28293050325231089"/>
-          <c:h val="6.1914175621664312E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1028700</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FE4A872-51AB-8BC9-9B62-37B45DAB62C3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -2667,16 +1550,19 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Technology - Software"/>
-      <sheetName val="Technology - Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Commodity Stocks"/>
-      <sheetName val="Full Portfolio"/>
+      <sheetName val="Commodities"/>
+      <sheetName val="US Treasury Bonds"/>
       <sheetName val="Growth"/>
-      <sheetName val="ROIC"/>
+      <sheetName val="Full Portfolio (Concentrated)"/>
+      <sheetName val="Value"/>
+      <sheetName val="Concentrated"/>
       <sheetName val="Watchlist"/>
-      <sheetName val="US Treasury Bonds"/>
       <sheetName val="Wide Moats"/>
       <sheetName val="Sheet2"/>
       <sheetName val="GARP HF Buys"/>
@@ -2692,21 +1578,24 @@
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9">
+      <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.7160000000000001E-2</v>
+            <v>4.8399999999999999E-2</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2833,10 +1722,10 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>438.05</v>
-    <v>250.3776</v>
-    <v>1.0633999999999999</v>
-    <v>10.14</v>
-    <v>2.5144000000000003E-2</v>
+    <v>252.62</v>
+    <v>1.0702</v>
+    <v>-14.89</v>
+    <v>-3.8585000000000001E-2</v>
     <v>USD</v>
     <v>Old Dominion Freight Line, Inc. is a North American less-than-truckload (LTL) motor carriers. The Company provides regional, inter-regional and national LTL services through a single integrated, union-free organization. Its service offerings include expedited transportation, which is provided through a network of service centers located throughout the continental United States. It offers a range of value-added services including container drayage, truckload brokerage, and supply chain consulting. It operates approximately 255 service center locations, of which the Company owns 231 and leases 24. Its service centers are responsible for the pickup and delivery of freight within their local service area. Its system offers its customers access to information such as freight tracking, shipping documents, rate quotes, rate databases, and account activity. These centralized systems and its customer service department provide its customers with a single point of contact to access information.</v>
     <v>23471</v>
@@ -2844,24 +1733,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>500 Old Dominion Way, THOMASVILLE, NC, 27360 US</v>
-    <v>415.46</v>
+    <v>397.41</v>
     <v>Freight &amp; Logistics Services</v>
     <v>Stock</v>
-    <v>45205.903928125001</v>
+    <v>45224.994568553127</v>
     <v>0</v>
-    <v>401.22</v>
-    <v>45173610000</v>
+    <v>357</v>
+    <v>40539557781</v>
     <v>OLD DOMINION FREIGHT LINE, INC.</v>
     <v>OLD DOMINION FREIGHT LINE, INC.</v>
-    <v>401.33</v>
-    <v>35.932000000000002</v>
-    <v>403.28</v>
-    <v>413.42</v>
+    <v>390.5</v>
+    <v>32.246000000000002</v>
+    <v>385.9</v>
+    <v>371.01</v>
     <v>109268100</v>
     <v>ODFL</v>
     <v>OLD DOMINION FREIGHT LINE, INC. (XNAS:ODFL)</v>
-    <v>80</v>
-    <v>638928</v>
+    <v>1544809</v>
+    <v>560896</v>
     <v>1999</v>
   </rv>
   <rv s="2">
@@ -3455,8 +2344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XEY196"/>
   <sheetViews>
-    <sheetView topLeftCell="A164" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="K198" sqref="K198"/>
     </sheetView>
   </sheetViews>
@@ -16770,8 +15659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6972475-FF4A-8649-AE06-B602917B031B}">
   <dimension ref="A1:P110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16779,16 +15668,16 @@
     <col min="1" max="16" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="116" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="116" t="e" vm="1">
+    <row r="1" spans="1:16" s="120" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="120" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="116" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:16" s="120" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="48" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>45173610000</v>
+        <v>40539557781</v>
       </c>
       <c r="B3" s="49" t="s">
         <v>241</v>
@@ -16816,7 +15705,7 @@
       </c>
       <c r="I3" s="53">
         <f>J14*(1+I7)/(I6-I7)</f>
-        <v>22004097595.067196</v>
+        <v>21950771249.368916</v>
       </c>
       <c r="J3" s="49" t="s">
         <v>204</v>
@@ -16824,10 +15713,10 @@
       <c r="K3" s="91"/>
       <c r="L3" s="89"/>
       <c r="M3" s="54"/>
-      <c r="N3" s="117" t="s">
+      <c r="N3" s="121" t="s">
         <v>206</v>
       </c>
-      <c r="O3" s="118"/>
+      <c r="O3" s="122"/>
       <c r="P3" s="54"/>
     </row>
     <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -16861,7 +15750,7 @@
       </c>
       <c r="I4" s="64">
         <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>18860172274.031826</v>
+        <v>18813169567.558704</v>
       </c>
       <c r="J4" s="59" t="s">
         <v>211</v>
@@ -16869,10 +15758,10 @@
       <c r="K4" s="91"/>
       <c r="L4" s="89"/>
       <c r="M4" s="54"/>
-      <c r="N4" s="119" t="s">
+      <c r="N4" s="123" t="s">
         <v>213</v>
       </c>
-      <c r="O4" s="120"/>
+      <c r="O4" s="124"/>
       <c r="P4" s="54"/>
     </row>
     <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -16906,14 +15795,14 @@
       </c>
       <c r="I5" s="64">
         <f>I4+G5-G6</f>
-        <v>18835343274.031826</v>
+        <v>18788340567.558704</v>
       </c>
       <c r="J5" s="59" t="s">
         <v>217</v>
       </c>
       <c r="K5" s="99" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>413.42</v>
+        <v>371.01</v>
       </c>
       <c r="L5" s="96" t="s">
         <v>205</v>
@@ -16931,7 +15820,7 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="62">
         <f>O20/F10</f>
-        <v>7.74847512864494</v>
+        <v>6.9536119692967411</v>
       </c>
       <c r="B6" s="56" t="s">
         <v>220</v>
@@ -16959,14 +15848,14 @@
       </c>
       <c r="I6" s="57">
         <f>N25</f>
-        <v>8.6209054094630644E-2</v>
+        <v>8.6357752978211272E-2</v>
       </c>
       <c r="J6" s="59" t="s">
         <v>210</v>
       </c>
       <c r="K6" s="101">
         <f>I5/G4</f>
-        <v>196.66932336432379</v>
+        <v>196.17854438865706</v>
       </c>
       <c r="L6" s="97" t="s">
         <v>212</v>
@@ -16984,14 +15873,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="65">
         <f>O20/F12</f>
-        <v>38.153386824324322</v>
+        <v>34.239491369087837</v>
       </c>
       <c r="B7" s="66" t="s">
         <v>224</v>
       </c>
       <c r="C7" s="67">
         <f>F14/O21</f>
-        <v>1.843832023897336E-2</v>
+        <v>2.0541843925381501E-2</v>
       </c>
       <c r="D7" s="68" t="s">
         <v>248</v>
@@ -17018,7 +15907,7 @@
       </c>
       <c r="K7" s="61">
         <f>K6/K5-1</f>
-        <v>-0.52428686719480488</v>
+        <v>-0.47123111401671902</v>
       </c>
       <c r="L7" s="98" t="s">
         <v>218</v>
@@ -17276,10 +16165,10 @@
       </c>
       <c r="L13" s="75"/>
       <c r="M13" s="75"/>
-      <c r="N13" s="119" t="s">
+      <c r="N13" s="123" t="s">
         <v>235</v>
       </c>
-      <c r="O13" s="120"/>
+      <c r="O13" s="124"/>
       <c r="P13" s="54"/>
     </row>
     <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -17323,7 +16212,7 @@
       </c>
       <c r="O14" s="106">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.7160000000000001E-2</v>
+        <v>4.8399999999999999E-2</v>
       </c>
       <c r="P14" s="54"/>
     </row>
@@ -17373,7 +16262,7 @@
       </c>
       <c r="O15" s="108" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.0633999999999999</v>
+        <v>1.0702</v>
       </c>
       <c r="P15" s="54"/>
     </row>
@@ -17428,7 +16317,7 @@
       </c>
       <c r="O17" s="109">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>8.6335656000000011E-2</v>
+        <v>8.6499120000000013E-2</v>
       </c>
       <c r="P17" s="54"/>
     </row>
@@ -17446,10 +16335,10 @@
       <c r="K18" s="75"/>
       <c r="L18" s="75"/>
       <c r="M18" s="75"/>
-      <c r="N18" s="119" t="s">
+      <c r="N18" s="123" t="s">
         <v>240</v>
       </c>
-      <c r="O18" s="120"/>
+      <c r="O18" s="124"/>
       <c r="P18" s="54"/>
     </row>
     <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -17494,7 +16383,7 @@
       </c>
       <c r="O20" s="110" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>45173610000</v>
+        <v>40539557781</v>
       </c>
       <c r="P20" s="54"/>
     </row>
@@ -17516,7 +16405,7 @@
       </c>
       <c r="O21" s="110">
         <f>O19+O20</f>
-        <v>45253580000</v>
+        <v>40619527781</v>
       </c>
       <c r="P21" s="54"/>
     </row>
@@ -17539,7 +16428,7 @@
       </c>
       <c r="O22" s="111">
         <f>(O19/O21)</f>
-        <v>1.7671530075631585E-3</v>
+        <v>1.9687575008542168E-3</v>
       </c>
       <c r="P22" s="54"/>
     </row>
@@ -17562,7 +16451,7 @@
       </c>
       <c r="O23" s="112">
         <f>O20/O21</f>
-        <v>0.99823284699243686</v>
+        <v>0.99803124249914577</v>
       </c>
       <c r="P23" s="54"/>
     </row>
@@ -17580,10 +16469,10 @@
       <c r="K24" s="75"/>
       <c r="L24" s="75"/>
       <c r="M24" s="75"/>
-      <c r="N24" s="121" t="s">
+      <c r="N24" s="116" t="s">
         <v>245</v>
       </c>
-      <c r="O24" s="122"/>
+      <c r="O24" s="117"/>
       <c r="P24" s="54"/>
     </row>
     <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -17600,11 +16489,11 @@
       <c r="K25" s="75"/>
       <c r="L25" s="75"/>
       <c r="M25" s="75"/>
-      <c r="N25" s="123">
+      <c r="N25" s="118">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>8.6209054094630644E-2</v>
-      </c>
-      <c r="O25" s="124"/>
+        <v>8.6357752978211272E-2</v>
+      </c>
+      <c r="O25" s="119"/>
       <c r="P25" s="54"/>
     </row>
     <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -18465,6 +17354,5 @@
     <hyperlink ref="F9" r:id="rId1" display="https://finbox.com/NASDAQGS:ODFL/explorer/revenue_proj" xr:uid="{8F785A48-47AA-9C46-A113-FB5D7A0A5C95}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Industrials/Old Dominion Freight Line.xlsx
+++ b/Industrials/Old Dominion Freight Line.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Industrials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDA111A-62DF-4C4C-91DD-D143050E0E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A1B3B9-2A13-6048-8E07-74EE150A1ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -1558,13 +1558,10 @@
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
+      <sheetName val="Highest Quality"/>
       <sheetName val="Growth"/>
-      <sheetName val="Full Portfolio (Concentrated)"/>
       <sheetName val="Value"/>
-      <sheetName val="Concentrated"/>
       <sheetName val="Watchlist"/>
-      <sheetName val="Wide Moats"/>
-      <sheetName val="Sheet2"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
@@ -1581,7 +1578,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.8399999999999999E-2</v>
+            <v>4.845E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1593,9 +1590,6 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1723,9 +1717,11 @@
     <v>Powered by Refinitiv</v>
     <v>438.05</v>
     <v>252.62</v>
-    <v>1.0702</v>
-    <v>-14.89</v>
-    <v>-3.8585000000000001E-2</v>
+    <v>1.0845</v>
+    <v>-1.33</v>
+    <v>-3.5970000000000004E-3</v>
+    <v>0.44</v>
+    <v>1.194E-3</v>
     <v>USD</v>
     <v>Old Dominion Freight Line, Inc. is a North American less-than-truckload (LTL) motor carriers. The Company provides regional, inter-regional and national LTL services through a single integrated, union-free organization. Its service offerings include expedited transportation, which is provided through a network of service centers located throughout the continental United States. It offers a range of value-added services including container drayage, truckload brokerage, and supply chain consulting. It operates approximately 255 service center locations, of which the Company owns 231 and leases 24. Its service centers are responsible for the pickup and delivery of freight within their local service area. Its system offers its customers access to information such as freight tracking, shipping documents, rate quotes, rate databases, and account activity. These centralized systems and its customer service department provide its customers with a single point of contact to access information.</v>
     <v>23471</v>
@@ -1733,24 +1729,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>500 Old Dominion Way, THOMASVILLE, NC, 27360 US</v>
-    <v>397.41</v>
+    <v>384.26</v>
     <v>Freight &amp; Logistics Services</v>
     <v>Stock</v>
-    <v>45224.994568553127</v>
+    <v>45226.885691353906</v>
     <v>0</v>
-    <v>357</v>
-    <v>40539557781</v>
+    <v>363.61</v>
+    <v>40260920000</v>
     <v>OLD DOMINION FREIGHT LINE, INC.</v>
     <v>OLD DOMINION FREIGHT LINE, INC.</v>
-    <v>390.5</v>
-    <v>32.246000000000002</v>
-    <v>385.9</v>
-    <v>371.01</v>
+    <v>375.03</v>
+    <v>32.798999999999999</v>
+    <v>369.79</v>
+    <v>368.46</v>
+    <v>368.9</v>
     <v>109268100</v>
     <v>ODFL</v>
     <v>OLD DOMINION FREIGHT LINE, INC. (XNAS:ODFL)</v>
-    <v>1544809</v>
-    <v>560896</v>
+    <v>935829</v>
+    <v>632091</v>
     <v>1999</v>
   </rv>
   <rv s="2">
@@ -1782,6 +1779,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -1802,6 +1801,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -1818,7 +1818,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -1829,13 +1829,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -1901,13 +1904,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -1952,6 +1961,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -1959,6 +1971,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2344,7 +2359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XEY196"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="K198" sqref="K198"/>
     </sheetView>
@@ -15659,8 +15674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6972475-FF4A-8649-AE06-B602917B031B}">
   <dimension ref="A1:P110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15677,7 +15692,7 @@
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="48" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>40539557781</v>
+        <v>40260920000</v>
       </c>
       <c r="B3" s="49" t="s">
         <v>241</v>
@@ -15705,7 +15720,7 @@
       </c>
       <c r="I3" s="53">
         <f>J14*(1+I7)/(I6-I7)</f>
-        <v>21950771249.368916</v>
+        <v>21772328924.44928</v>
       </c>
       <c r="J3" s="49" t="s">
         <v>204</v>
@@ -15750,7 +15765,7 @@
       </c>
       <c r="I4" s="64">
         <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>18813169567.558704</v>
+        <v>18655891839.716488</v>
       </c>
       <c r="J4" s="59" t="s">
         <v>211</v>
@@ -15795,14 +15810,14 @@
       </c>
       <c r="I5" s="64">
         <f>I4+G5-G6</f>
-        <v>18788340567.558704</v>
+        <v>18631062839.716488</v>
       </c>
       <c r="J5" s="59" t="s">
         <v>217</v>
       </c>
       <c r="K5" s="99" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>371.01</v>
+        <v>368.46</v>
       </c>
       <c r="L5" s="96" t="s">
         <v>205</v>
@@ -15820,7 +15835,7 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="62">
         <f>O20/F10</f>
-        <v>6.9536119692967411</v>
+        <v>6.9058181818181819</v>
       </c>
       <c r="B6" s="56" t="s">
         <v>220</v>
@@ -15848,14 +15863,14 @@
       </c>
       <c r="I6" s="57">
         <f>N25</f>
-        <v>8.6357752978211272E-2</v>
+        <v>8.6860630742517958E-2</v>
       </c>
       <c r="J6" s="59" t="s">
         <v>210</v>
       </c>
       <c r="K6" s="101">
         <f>I5/G4</f>
-        <v>196.17854438865706</v>
+        <v>194.5363282705334</v>
       </c>
       <c r="L6" s="97" t="s">
         <v>212</v>
@@ -15873,14 +15888,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="65">
         <f>O20/F12</f>
-        <v>34.239491369087837</v>
+        <v>34.004155405405406</v>
       </c>
       <c r="B7" s="66" t="s">
         <v>224</v>
       </c>
       <c r="C7" s="67">
         <f>F14/O21</f>
-        <v>2.0541843925381501E-2</v>
+        <v>2.0683728098214987E-2</v>
       </c>
       <c r="D7" s="68" t="s">
         <v>248</v>
@@ -15907,7 +15922,7 @@
       </c>
       <c r="K7" s="61">
         <f>K6/K5-1</f>
-        <v>-0.47123111401671902</v>
+        <v>-0.47202863738117184</v>
       </c>
       <c r="L7" s="98" t="s">
         <v>218</v>
@@ -16212,7 +16227,7 @@
       </c>
       <c r="O14" s="106">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.8399999999999999E-2</v>
+        <v>4.845E-2</v>
       </c>
       <c r="P14" s="54"/>
     </row>
@@ -16262,7 +16277,7 @@
       </c>
       <c r="O15" s="108" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.0702</v>
+        <v>1.0845</v>
       </c>
       <c r="P15" s="54"/>
     </row>
@@ -16317,7 +16332,7 @@
       </c>
       <c r="O17" s="109">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>8.6499120000000013E-2</v>
+        <v>8.7003975000000011E-2</v>
       </c>
       <c r="P17" s="54"/>
     </row>
@@ -16383,7 +16398,7 @@
       </c>
       <c r="O20" s="110" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>40539557781</v>
+        <v>40260920000</v>
       </c>
       <c r="P20" s="54"/>
     </row>
@@ -16405,7 +16420,7 @@
       </c>
       <c r="O21" s="110">
         <f>O19+O20</f>
-        <v>40619527781</v>
+        <v>40340890000</v>
       </c>
       <c r="P21" s="54"/>
     </row>
@@ -16428,7 +16443,7 @@
       </c>
       <c r="O22" s="111">
         <f>(O19/O21)</f>
-        <v>1.9687575008542168E-3</v>
+        <v>1.9823558677064387E-3</v>
       </c>
       <c r="P22" s="54"/>
     </row>
@@ -16451,7 +16466,7 @@
       </c>
       <c r="O23" s="112">
         <f>O20/O21</f>
-        <v>0.99803124249914577</v>
+        <v>0.99801764413229355</v>
       </c>
       <c r="P23" s="54"/>
     </row>
@@ -16491,7 +16506,7 @@
       <c r="M25" s="75"/>
       <c r="N25" s="118">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>8.6357752978211272E-2</v>
+        <v>8.6860630742517958E-2</v>
       </c>
       <c r="O25" s="119"/>
       <c r="P25" s="54"/>

--- a/Industrials/Old Dominion Freight Line.xlsx
+++ b/Industrials/Old Dominion Freight Line.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Industrials/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Industrials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A1B3B9-2A13-6048-8E07-74EE150A1ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB117A0-D272-8E42-92A4-1F2FED6E84FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1578" uniqueCount="253">
   <si>
     <t>2010 Y</t>
   </si>
@@ -821,6 +821,18 @@
   </si>
   <si>
     <t>Fwd FCF Yield</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>Daily Change (%)</t>
+  </si>
+  <si>
+    <t>Profit Margin</t>
+  </si>
+  <si>
+    <t>`</t>
   </si>
 </sst>
 </file>
@@ -833,7 +845,7 @@
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -923,11 +935,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -993,6 +1000,17 @@
       <b/>
       <sz val="11.5"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1079,7 +1097,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1124,65 +1142,8 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
       <top/>
@@ -1190,24 +1151,213 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
-      <top/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1217,7 +1367,29 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1225,7 +1397,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1300,230 +1472,258 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="15" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="9" fontId="15" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="9" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="13" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="12"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="9" fontId="15" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="27" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="9" fontId="15" fillId="10" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="18" fillId="10" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="9" fontId="15" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="11" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="13" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="10" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="12" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="26" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="10" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="10" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="14" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="14" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="14" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="14" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="25" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="14" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="14" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="14" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="26" fillId="14" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="10" fontId="26" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="14" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="14" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="11" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="26" fillId="14" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="10" fontId="20" fillId="9" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="19" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="10" fontId="20" fillId="9" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="19" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="27" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="26" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="26" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="26" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="27" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="27" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="27" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="9" fontId="24" fillId="14" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="20" fillId="14" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="19" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="20" fillId="14" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="14" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="14" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1558,10 +1758,10 @@
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Watchlist"/>
       <sheetName val="Highest Quality"/>
-      <sheetName val="Growth"/>
-      <sheetName val="Value"/>
-      <sheetName val="Watchlist"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
@@ -1578,7 +1778,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.845E-2</v>
+            <v>4.3360000000000003E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1716,12 +1916,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>438.05</v>
-    <v>252.62</v>
-    <v>1.0845</v>
-    <v>-1.33</v>
-    <v>-3.5970000000000004E-3</v>
-    <v>0.44</v>
-    <v>1.194E-3</v>
+    <v>277.49</v>
+    <v>1.0405</v>
+    <v>-3.47</v>
+    <v>-8.9580000000000007E-3</v>
+    <v>1.92</v>
+    <v>5.0010000000000002E-3</v>
     <v>USD</v>
     <v>Old Dominion Freight Line, Inc. is a North American less-than-truckload (LTL) motor carriers. The Company provides regional, inter-regional and national LTL services through a single integrated, union-free organization. Its service offerings include expedited transportation, which is provided through a network of service centers located throughout the continental United States. It offers a range of value-added services including container drayage, truckload brokerage, and supply chain consulting. It operates approximately 255 service center locations, of which the Company owns 231 and leases 24. Its service centers are responsible for the pickup and delivery of freight within their local service area. Its system offers its customers access to information such as freight tracking, shipping documents, rate quotes, rate databases, and account activity. These centralized systems and its customer service department provide its customers with a single point of contact to access information.</v>
     <v>23471</v>
@@ -1729,26 +1929,26 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>500 Old Dominion Way, THOMASVILLE, NC, 27360 US</v>
-    <v>384.26</v>
+    <v>393</v>
     <v>Freight &amp; Logistics Services</v>
     <v>Stock</v>
-    <v>45226.885691353906</v>
+    <v>45259.897734767968</v>
     <v>0</v>
-    <v>363.61</v>
-    <v>40260920000</v>
+    <v>382.14</v>
+    <v>42268450000</v>
     <v>OLD DOMINION FREIGHT LINE, INC.</v>
     <v>OLD DOMINION FREIGHT LINE, INC.</v>
-    <v>375.03</v>
-    <v>32.798999999999999</v>
-    <v>369.79</v>
-    <v>368.46</v>
-    <v>368.9</v>
-    <v>109268100</v>
+    <v>388.71</v>
+    <v>34.174300000000002</v>
+    <v>387.38</v>
+    <v>383.91</v>
+    <v>385.83</v>
+    <v>109113600</v>
     <v>ODFL</v>
     <v>OLD DOMINION FREIGHT LINE, INC. (XNAS:ODFL)</v>
-    <v>935829</v>
-    <v>632091</v>
-    <v>1999</v>
+    <v>697604</v>
+    <v>679962</v>
+    <v>1950</v>
   </rv>
   <rv s="2">
     <v>1</v>
@@ -2359,9 +2559,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XEY196"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K198" sqref="K198"/>
+    <sheetView topLeftCell="A172" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K188" sqref="K188:N188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15672,1691 +15872,1890 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6972475-FF4A-8649-AE06-B602917B031B}">
-  <dimension ref="A1:P110"/>
+  <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16" width="18.83203125" customWidth="1"/>
+    <col min="1" max="18" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="120" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="120" t="e" vm="1">
+    <row r="1" spans="1:18" s="126" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="126" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="120" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="48" cm="1">
+    <row r="2" spans="1:18" s="126" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="53" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>40260920000</v>
-      </c>
-      <c r="B3" s="49" t="s">
+        <v>42268450000</v>
+      </c>
+      <c r="B3" s="54" t="s">
         <v>241</v>
       </c>
-      <c r="C3" s="51">
+      <c r="C3" s="55">
         <f>Financials!O8*0.01</f>
         <v>0.3569</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="54" t="s">
         <v>201</v>
       </c>
-      <c r="E3" s="51">
+      <c r="E3" s="55">
         <f>SUM(C11:E11)/3</f>
         <v>0.15907301409925287</v>
       </c>
-      <c r="F3" s="52" t="s">
+      <c r="F3" s="56" t="s">
         <v>202</v>
       </c>
-      <c r="G3" s="50">
-        <f>SUM(Financials!K129:N129)/4</f>
-        <v>-2.4703388897535511E-2</v>
-      </c>
-      <c r="H3" s="52" t="s">
+      <c r="G3" s="57">
+        <f>AVERAGE(Financials!K129:O129)</f>
+        <v>-2.1369175202384662E-2</v>
+      </c>
+      <c r="H3" s="56" t="s">
         <v>247</v>
       </c>
-      <c r="I3" s="53">
-        <f>J14*(1+I7)/(I6-I7)</f>
-        <v>21772328924.44928</v>
-      </c>
-      <c r="J3" s="49" t="s">
+      <c r="I3" s="58">
+        <f>J15*(1+I7)/(I6-I7)</f>
+        <v>17730541405.082294</v>
+      </c>
+      <c r="J3" s="59" t="s">
         <v>204</v>
       </c>
-      <c r="K3" s="91"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="121" t="s">
+      <c r="K3" s="60">
+        <f>(Financials!O172*-1)/Model!A3</f>
+        <v>3.6499090929523084E-3</v>
+      </c>
+      <c r="L3" s="61" t="s">
+        <v>249</v>
+      </c>
+      <c r="M3" s="48"/>
+      <c r="N3" s="127" t="s">
         <v>206</v>
       </c>
-      <c r="O3" s="122"/>
-      <c r="P3" s="54"/>
-    </row>
-    <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="55">
+      <c r="O3" s="128"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+    </row>
+    <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="62">
         <f>Financials!O56-Financials!O96-Financials!O105</f>
         <v>-24829000</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="63" t="s">
         <v>207</v>
       </c>
-      <c r="C4" s="58">
+      <c r="C4" s="51">
         <f>Financials!O17*0.01</f>
         <v>0.2858</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="63" t="s">
         <v>208</v>
       </c>
-      <c r="E4" s="58">
+      <c r="E4" s="51">
         <f>SUM(C13:E13)/3</f>
         <v>0.32065056617983179</v>
       </c>
-      <c r="F4" s="90" t="s">
+      <c r="F4" s="64" t="s">
         <v>209</v>
       </c>
-      <c r="G4" s="60">
+      <c r="G4" s="65">
         <f>A5*(1+(5*G3))</f>
-        <v>95771638.158025995</v>
-      </c>
-      <c r="H4" s="59" t="s">
+        <v>97455261.823185399</v>
+      </c>
+      <c r="H4" s="64" t="s">
         <v>226</v>
       </c>
-      <c r="I4" s="64">
-        <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>18655891839.716488</v>
-      </c>
-      <c r="J4" s="59" t="s">
+      <c r="I4" s="49">
+        <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
+        <v>15504411056.945179</v>
+      </c>
+      <c r="J4" s="64" t="s">
         <v>211</v>
       </c>
-      <c r="K4" s="91"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="123" t="s">
+      <c r="K4" s="66" cm="1">
+        <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
+        <v>-8.9580000000000007E-3</v>
+      </c>
+      <c r="L4" s="67" t="s">
+        <v>250</v>
+      </c>
+      <c r="M4" s="48"/>
+      <c r="N4" s="129" t="s">
         <v>213</v>
       </c>
-      <c r="O4" s="124"/>
-      <c r="P4" s="54"/>
-    </row>
-    <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="60" cm="1">
+      <c r="O4" s="130"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+    </row>
+    <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="62" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>109268100</v>
-      </c>
-      <c r="B5" s="56" t="s">
+        <v>109113600</v>
+      </c>
+      <c r="B5" s="63" t="s">
         <v>246</v>
       </c>
-      <c r="C5" s="87">
-        <f>Financials!O34*0.01</f>
-        <v>0.21489999999999998</v>
-      </c>
-      <c r="D5" s="56" t="s">
+      <c r="C5" s="51">
+        <f>F14</f>
+        <v>0.20877252635158108</v>
+      </c>
+      <c r="D5" s="68" t="s">
         <v>214</v>
       </c>
-      <c r="E5" s="58">
-        <f>SUM(C15:E15)/3</f>
+      <c r="E5" s="51">
+        <f>SUM(C16:E16)/3</f>
         <v>0.24121788039812253</v>
       </c>
-      <c r="F5" s="90" t="s">
+      <c r="F5" s="64" t="s">
         <v>215</v>
       </c>
-      <c r="G5" s="60">
+      <c r="G5" s="65">
         <f>Financials!O56</f>
         <v>55141000</v>
       </c>
-      <c r="H5" s="59" t="s">
+      <c r="H5" s="64" t="s">
         <v>216</v>
       </c>
-      <c r="I5" s="64">
+      <c r="I5" s="49">
         <f>I4+G5-G6</f>
-        <v>18631062839.716488</v>
-      </c>
-      <c r="J5" s="59" t="s">
+        <v>15479582056.945179</v>
+      </c>
+      <c r="J5" s="64" t="s">
         <v>217</v>
       </c>
-      <c r="K5" s="99" cm="1">
+      <c r="K5" s="69" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>368.46</v>
-      </c>
-      <c r="L5" s="96" t="s">
+        <v>383.91</v>
+      </c>
+      <c r="L5" s="70" t="s">
         <v>205</v>
       </c>
-      <c r="M5" s="54"/>
-      <c r="N5" s="83" t="s">
+      <c r="M5" s="48"/>
+      <c r="N5" s="71" t="s">
         <v>219</v>
       </c>
-      <c r="O5" s="103">
-        <f>Financials!O21</f>
-        <v>1566000</v>
-      </c>
-      <c r="P5" s="54"/>
-    </row>
-    <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="62">
+      <c r="O5" s="72">
+        <f>Financials!O20</f>
+        <v>-7897000</v>
+      </c>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+    </row>
+    <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="73">
         <f>O20/F10</f>
-        <v>6.9058181818181819</v>
-      </c>
-      <c r="B6" s="56" t="s">
+        <v>7.186067664059844</v>
+      </c>
+      <c r="B6" s="63" t="s">
         <v>220</v>
       </c>
-      <c r="C6" s="58">
-        <f>Financials!O190</f>
-        <v>0.10896750065622819</v>
-      </c>
-      <c r="D6" s="63" t="s">
+      <c r="C6" s="51">
+        <f>F17</f>
+        <v>0.14365861951717104</v>
+      </c>
+      <c r="D6" s="68" t="s">
         <v>200</v>
       </c>
-      <c r="E6" s="58">
+      <c r="E6" s="51">
         <f>Financials!O33/Financials!O126</f>
         <v>0.33369476009483212</v>
       </c>
-      <c r="F6" s="56" t="s">
+      <c r="F6" s="63" t="s">
         <v>221</v>
       </c>
-      <c r="G6" s="64">
+      <c r="G6" s="65">
         <f>Financials!O96+Financials!O105</f>
         <v>79970000</v>
       </c>
-      <c r="H6" s="59" t="s">
+      <c r="H6" s="64" t="s">
         <v>222</v>
       </c>
-      <c r="I6" s="57">
+      <c r="I6" s="66">
         <f>N25</f>
-        <v>8.6860630742517958E-2</v>
-      </c>
-      <c r="J6" s="59" t="s">
+        <v>9.7087324564619298E-2</v>
+      </c>
+      <c r="J6" s="64" t="s">
         <v>210</v>
       </c>
-      <c r="K6" s="101">
+      <c r="K6" s="52">
         <f>I5/G4</f>
-        <v>194.5363282705334</v>
-      </c>
-      <c r="L6" s="97" t="s">
+        <v>158.83782740258835</v>
+      </c>
+      <c r="L6" s="74" t="s">
         <v>212</v>
       </c>
-      <c r="M6" s="54"/>
-      <c r="N6" s="84" t="s">
+      <c r="M6" s="48"/>
+      <c r="N6" s="71" t="s">
         <v>223</v>
       </c>
-      <c r="O6" s="104">
+      <c r="O6" s="72">
         <f>Financials!O96</f>
         <v>20000000</v>
       </c>
-      <c r="P6" s="54"/>
-    </row>
-    <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="65">
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="48"/>
+    </row>
+    <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="75">
         <f>O20/F12</f>
-        <v>34.004155405405406</v>
-      </c>
-      <c r="B7" s="66" t="s">
+        <v>34.420561889250813</v>
+      </c>
+      <c r="B7" s="76" t="s">
         <v>224</v>
       </c>
-      <c r="C7" s="67">
-        <f>F14/O21</f>
-        <v>2.0683728098214987E-2</v>
-      </c>
-      <c r="D7" s="68" t="s">
+      <c r="C7" s="77">
+        <f>F15/A3</f>
+        <v>1.9991270084424671E-2</v>
+      </c>
+      <c r="D7" s="76" t="s">
         <v>248</v>
       </c>
-      <c r="E7" s="69">
+      <c r="E7" s="78">
         <f>(Financials!O16*(1-0.25))/(Financials!O126+Financials!O105+Financials!O96)</f>
         <v>0.32610234393872195</v>
       </c>
-      <c r="F7" s="66" t="s">
+      <c r="F7" s="76" t="s">
         <v>196</v>
       </c>
-      <c r="G7" s="70">
+      <c r="G7" s="79">
         <f>(Financials!O96+Financials!O105)/Financials!O126</f>
         <v>2.0868807304734952E-2</v>
       </c>
-      <c r="H7" s="71" t="s">
+      <c r="H7" s="80" t="s">
         <v>225</v>
       </c>
-      <c r="I7" s="88">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="J7" s="100" t="s">
+      <c r="I7" s="81">
+        <v>0.02</v>
+      </c>
+      <c r="J7" s="82" t="s">
         <v>203</v>
       </c>
-      <c r="K7" s="61">
+      <c r="K7" s="83">
         <f>K6/K5-1</f>
-        <v>-0.47202863738117184</v>
-      </c>
-      <c r="L7" s="98" t="s">
+        <v>-0.58626285482902674</v>
+      </c>
+      <c r="L7" s="84" t="s">
         <v>218</v>
       </c>
-      <c r="M7" s="54"/>
-      <c r="N7" s="84" t="s">
+      <c r="M7" s="48"/>
+      <c r="N7" s="71" t="s">
         <v>227</v>
       </c>
-      <c r="O7" s="104">
+      <c r="O7" s="72">
         <f>Financials!O105</f>
         <v>59970000</v>
       </c>
-      <c r="P7" s="54"/>
-    </row>
-    <row r="8" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="72"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="85" t="s">
+      <c r="P7" s="48"/>
+      <c r="Q7" s="48"/>
+      <c r="R7" s="48"/>
+    </row>
+    <row r="8" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="85"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="86" t="s">
         <v>213</v>
       </c>
-      <c r="O8" s="105">
+      <c r="O8" s="87">
         <f>O5/(O6+O7)</f>
-        <v>1.9582343378767037E-2</v>
-      </c>
-      <c r="P8" s="54"/>
-    </row>
-    <row r="9" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="73"/>
-      <c r="B9" s="93">
+        <v>-9.874953107415281E-2</v>
+      </c>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="48"/>
+    </row>
+    <row r="9" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="88"/>
+      <c r="B9" s="89">
         <v>2019</v>
       </c>
-      <c r="C9" s="93">
+      <c r="C9" s="89">
         <v>2020</v>
       </c>
-      <c r="D9" s="93">
+      <c r="D9" s="89">
         <v>2021</v>
       </c>
-      <c r="E9" s="93">
+      <c r="E9" s="90">
         <v>2022</v>
       </c>
-      <c r="F9" s="94">
+      <c r="F9" s="91">
         <v>2023</v>
       </c>
-      <c r="G9" s="95">
+      <c r="G9" s="92">
         <v>2024</v>
       </c>
-      <c r="H9" s="95">
+      <c r="H9" s="92">
         <v>2025</v>
       </c>
-      <c r="I9" s="95">
+      <c r="I9" s="92">
         <v>2026</v>
       </c>
-      <c r="J9" s="95">
+      <c r="J9" s="93">
         <v>2027</v>
       </c>
-      <c r="K9" s="74"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="75"/>
-      <c r="N9" s="84" t="s">
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="71" t="s">
         <v>228</v>
       </c>
-      <c r="O9" s="104">
+      <c r="O9" s="72">
         <f>Financials!O25</f>
         <v>425412000</v>
       </c>
-      <c r="P9" s="54"/>
-    </row>
-    <row r="10" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="113" t="s">
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="48"/>
+    </row>
+    <row r="10" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="94" t="s">
         <v>229</v>
       </c>
-      <c r="B10" s="76">
+      <c r="B10" s="95">
         <v>4109111000</v>
       </c>
-      <c r="C10" s="76">
+      <c r="C10" s="95">
         <v>4015129000</v>
       </c>
-      <c r="D10" s="76">
+      <c r="D10" s="95">
         <v>5256328000</v>
       </c>
-      <c r="E10" s="76">
+      <c r="E10" s="96">
         <v>6260077000</v>
       </c>
-      <c r="F10" s="77">
-        <v>5830000000</v>
-      </c>
-      <c r="G10" s="76">
-        <v>6488000000</v>
-      </c>
-      <c r="H10" s="76">
-        <v>7157000000</v>
-      </c>
-      <c r="I10" s="76">
-        <v>7891000000</v>
-      </c>
-      <c r="J10" s="76">
-        <v>8562000000</v>
-      </c>
-      <c r="K10" s="102" t="s">
+      <c r="F10" s="95">
+        <v>5882000000</v>
+      </c>
+      <c r="G10" s="95">
+        <v>6574000000</v>
+      </c>
+      <c r="H10" s="95">
+        <v>7210000000</v>
+      </c>
+      <c r="I10" s="95">
+        <v>7900000000</v>
+      </c>
+      <c r="J10" s="96">
+        <v>8500000000</v>
+      </c>
+      <c r="K10" s="97" t="s">
         <v>230</v>
       </c>
-      <c r="N10" s="84" t="s">
+      <c r="L10" s="50"/>
+      <c r="N10" s="71" t="s">
         <v>231</v>
       </c>
-      <c r="O10" s="104">
+      <c r="O10" s="72">
         <f>Financials!O24</f>
         <v>1704142000</v>
       </c>
-      <c r="P10" s="54"/>
-    </row>
-    <row r="11" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="114"/>
-      <c r="B11" s="78"/>
-      <c r="C11" s="78">
+      <c r="P10" s="48"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="48"/>
+    </row>
+    <row r="11" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="98"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="99">
         <f t="shared" ref="C11:J11" si="0">(C10/B10)-1</f>
         <v>-2.2871613835693361E-2</v>
       </c>
-      <c r="D11" s="78">
+      <c r="D11" s="99">
         <f t="shared" si="0"/>
         <v>0.30913054101126014</v>
       </c>
-      <c r="E11" s="78">
+      <c r="E11" s="99">
         <f t="shared" si="0"/>
         <v>0.1909601151221918</v>
       </c>
-      <c r="F11" s="79">
+      <c r="F11" s="100">
         <f t="shared" si="0"/>
-        <v>-6.8701551115106119E-2</v>
-      </c>
-      <c r="G11" s="78">
+        <v>-6.0394944023851482E-2</v>
+      </c>
+      <c r="G11" s="99">
         <f t="shared" si="0"/>
-        <v>0.1128644939965695</v>
-      </c>
-      <c r="H11" s="78">
+        <v>0.11764705882352944</v>
+      </c>
+      <c r="H11" s="99">
         <f t="shared" si="0"/>
-        <v>0.1031134401972873</v>
-      </c>
-      <c r="I11" s="78">
+        <v>9.674475205354427E-2</v>
+      </c>
+      <c r="I11" s="99">
         <f t="shared" si="0"/>
-        <v>0.10255693726421677</v>
-      </c>
-      <c r="J11" s="78">
+        <v>9.5700416088765561E-2</v>
+      </c>
+      <c r="J11" s="101">
         <f t="shared" si="0"/>
-        <v>8.503358256241289E-2</v>
-      </c>
-      <c r="K11" s="79">
-        <f>SUM(F11:J11)/5</f>
-        <v>6.6973380581076075E-2</v>
-      </c>
-      <c r="L11" s="75"/>
-      <c r="M11" s="75"/>
-      <c r="N11" s="84" t="s">
+        <v>7.5949367088607556E-2</v>
+      </c>
+      <c r="K11" s="101">
+        <f>AVERAGE(F11:J11)</f>
+        <v>6.5129330006119063E-2</v>
+      </c>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="71" t="s">
         <v>232</v>
       </c>
-      <c r="O11" s="106">
+      <c r="O11" s="102">
         <f>O9/O10</f>
         <v>0.24963412673357033</v>
       </c>
-      <c r="P11" s="54"/>
-    </row>
-    <row r="12" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="113" t="s">
+      <c r="P11" s="48"/>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="48"/>
+    </row>
+    <row r="12" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="94" t="s">
         <v>142</v>
       </c>
-      <c r="B12" s="76">
+      <c r="B12" s="95">
         <v>615518000</v>
       </c>
-      <c r="C12" s="76">
+      <c r="C12" s="95">
         <v>672682000</v>
       </c>
-      <c r="D12" s="76">
+      <c r="D12" s="95">
         <v>1034375000</v>
       </c>
-      <c r="E12" s="76">
+      <c r="E12" s="95">
         <v>1377159000</v>
       </c>
-      <c r="F12" s="77">
-        <v>1184000000</v>
-      </c>
-      <c r="G12" s="76">
-        <v>1401000000</v>
-      </c>
-      <c r="H12" s="76">
-        <v>1645000000</v>
-      </c>
-      <c r="I12" s="76">
-        <v>1777000000</v>
-      </c>
-      <c r="J12" s="76">
-        <v>1912000000</v>
-      </c>
-      <c r="K12" s="102" t="s">
+      <c r="F12" s="103">
+        <v>1228000000</v>
+      </c>
+      <c r="G12" s="95">
+        <v>1460000000</v>
+      </c>
+      <c r="H12" s="95">
+        <v>1647000000</v>
+      </c>
+      <c r="I12" s="95">
+        <v>1800000000</v>
+      </c>
+      <c r="J12" s="96">
+        <v>1930000000</v>
+      </c>
+      <c r="K12" s="104" t="s">
         <v>233</v>
       </c>
-      <c r="L12" s="75"/>
-      <c r="M12" s="75"/>
-      <c r="N12" s="86" t="s">
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="71" t="s">
         <v>234</v>
       </c>
-      <c r="O12" s="107">
+      <c r="O12" s="102">
         <f>O8*(1-O11)</f>
-        <v>1.4693922190011614E-2</v>
-      </c>
-      <c r="P12" s="54"/>
-    </row>
-    <row r="13" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="114"/>
-      <c r="B13" s="78"/>
-      <c r="C13" s="78">
+        <v>-7.4098278119107103E-2</v>
+      </c>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="48"/>
+    </row>
+    <row r="13" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="98"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="99">
         <f t="shared" ref="C13:J13" si="1">(C12/B12)-1</f>
         <v>9.2871370130524156E-2</v>
       </c>
-      <c r="D13" s="78">
+      <c r="D13" s="99">
         <f t="shared" si="1"/>
         <v>0.53768794170202261</v>
       </c>
-      <c r="E13" s="78">
+      <c r="E13" s="99">
         <f t="shared" si="1"/>
         <v>0.33139238670694859</v>
       </c>
-      <c r="F13" s="79">
+      <c r="F13" s="100">
         <f t="shared" si="1"/>
-        <v>-0.14025904053199378</v>
-      </c>
-      <c r="G13" s="78">
+        <v>-0.10830920757879081</v>
+      </c>
+      <c r="G13" s="99">
         <f t="shared" si="1"/>
-        <v>0.18327702702702697</v>
-      </c>
-      <c r="H13" s="78">
+        <v>0.18892508143322484</v>
+      </c>
+      <c r="H13" s="99">
         <f t="shared" si="1"/>
-        <v>0.17416131334760876</v>
-      </c>
-      <c r="I13" s="78">
+        <v>0.12808219178082192</v>
+      </c>
+      <c r="I13" s="99">
         <f t="shared" si="1"/>
-        <v>8.0243161094224913E-2</v>
-      </c>
-      <c r="J13" s="78">
+        <v>9.2896174863388081E-2</v>
+      </c>
+      <c r="J13" s="101">
         <f t="shared" si="1"/>
-        <v>7.5970737197524008E-2</v>
-      </c>
-      <c r="K13" s="79">
-        <f>SUM(F13:J13)/5</f>
-        <v>7.4678639626878179E-2</v>
-      </c>
-      <c r="L13" s="75"/>
-      <c r="M13" s="75"/>
-      <c r="N13" s="123" t="s">
+        <v>7.2222222222222188E-2</v>
+      </c>
+      <c r="K13" s="101">
+        <f>AVERAGE(F13:J13)</f>
+        <v>7.4763292544173243E-2</v>
+      </c>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="129" t="s">
         <v>235</v>
       </c>
-      <c r="O13" s="124"/>
-      <c r="P13" s="54"/>
-    </row>
-    <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="113" t="s">
+      <c r="O13" s="130"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="48"/>
+      <c r="R13" s="48"/>
+    </row>
+    <row r="14" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="105" t="s">
+        <v>251</v>
+      </c>
+      <c r="B14" s="106">
+        <f>B12/B10</f>
+        <v>0.14979347114254155</v>
+      </c>
+      <c r="C14" s="106">
+        <f t="shared" ref="C14:J14" si="2">C12/C10</f>
+        <v>0.16753683381032092</v>
+      </c>
+      <c r="D14" s="106">
+        <f t="shared" si="2"/>
+        <v>0.19678661605592346</v>
+      </c>
+      <c r="E14" s="106">
+        <f t="shared" si="2"/>
+        <v>0.21999074452279102</v>
+      </c>
+      <c r="F14" s="107">
+        <f t="shared" si="2"/>
+        <v>0.20877252635158108</v>
+      </c>
+      <c r="G14" s="106">
+        <f t="shared" si="2"/>
+        <v>0.22208700943109219</v>
+      </c>
+      <c r="H14" s="106">
+        <f t="shared" si="2"/>
+        <v>0.22843273231622746</v>
+      </c>
+      <c r="I14" s="106">
+        <f t="shared" si="2"/>
+        <v>0.22784810126582278</v>
+      </c>
+      <c r="J14" s="108">
+        <f t="shared" si="2"/>
+        <v>0.22705882352941176</v>
+      </c>
+      <c r="K14" s="108"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="71" t="s">
+        <v>237</v>
+      </c>
+      <c r="O14" s="102">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.3360000000000003E-2</v>
+      </c>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="48"/>
+      <c r="R14" s="48"/>
+    </row>
+    <row r="15" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="94" t="s">
         <v>185</v>
       </c>
-      <c r="B14" s="76">
+      <c r="B15" s="95">
         <v>504844632</v>
       </c>
-      <c r="C14" s="76">
+      <c r="C15" s="95">
         <v>710019188</v>
       </c>
-      <c r="D14" s="76">
+      <c r="D15" s="95">
         <v>663815615</v>
       </c>
-      <c r="E14" s="76">
+      <c r="E15" s="95">
         <v>917602980</v>
       </c>
-      <c r="F14" s="77">
-        <v>834400000</v>
-      </c>
-      <c r="G14" s="76">
-        <v>1006000000</v>
-      </c>
-      <c r="H14" s="76">
-        <v>1178000000</v>
-      </c>
-      <c r="I14" s="76">
-        <v>1251000000</v>
-      </c>
-      <c r="J14" s="76">
-        <v>1314000000</v>
-      </c>
-      <c r="K14" s="102" t="s">
+      <c r="F15" s="103">
+        <v>845000000</v>
+      </c>
+      <c r="G15" s="95">
+        <v>1060000000</v>
+      </c>
+      <c r="H15" s="95">
+        <v>1288000000</v>
+      </c>
+      <c r="I15" s="95">
+        <v>1273000000</v>
+      </c>
+      <c r="J15" s="96">
+        <v>1340000000</v>
+      </c>
+      <c r="K15" s="104" t="s">
         <v>236</v>
       </c>
-      <c r="L14" s="75"/>
-      <c r="M14" s="75"/>
-      <c r="N14" s="84" t="s">
-        <v>237</v>
-      </c>
-      <c r="O14" s="106">
-        <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.845E-2</v>
-      </c>
-      <c r="P14" s="54"/>
-    </row>
-    <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="115"/>
-      <c r="B15" s="78"/>
-      <c r="C15" s="78">
-        <f t="shared" ref="C15:J15" si="2">(C14/B14)-1</f>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="71" t="s">
+        <v>238</v>
+      </c>
+      <c r="O15" s="109">
+        <f>1.33</f>
+        <v>1.33</v>
+      </c>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="48"/>
+      <c r="R15" s="48"/>
+    </row>
+    <row r="16" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="110"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="99">
+        <f t="shared" ref="C16:J16" si="3">(C15/B15)-1</f>
         <v>0.40641128575969487</v>
       </c>
-      <c r="D15" s="78">
-        <f t="shared" si="2"/>
+      <c r="D16" s="99">
+        <f t="shared" si="3"/>
         <v>-6.507369629002191E-2</v>
       </c>
-      <c r="E15" s="78">
-        <f t="shared" si="2"/>
+      <c r="E16" s="99">
+        <f t="shared" si="3"/>
         <v>0.38231605172469463</v>
       </c>
-      <c r="F15" s="79">
-        <f t="shared" si="2"/>
-        <v>-9.0674269606229929E-2</v>
-      </c>
-      <c r="G15" s="78">
-        <f t="shared" si="2"/>
-        <v>0.20565675934803451</v>
-      </c>
-      <c r="H15" s="78">
-        <f t="shared" si="2"/>
-        <v>0.17097415506958247</v>
-      </c>
-      <c r="I15" s="78">
-        <f t="shared" si="2"/>
-        <v>6.1969439728353226E-2</v>
-      </c>
-      <c r="J15" s="78">
-        <f t="shared" si="2"/>
-        <v>5.0359712230215736E-2</v>
-      </c>
-      <c r="K15" s="79">
-        <f>SUM(F15:J15)/5</f>
-        <v>7.9657159353991203E-2</v>
-      </c>
-      <c r="L15" s="75"/>
-      <c r="M15" s="75"/>
-      <c r="N15" s="84" t="s">
-        <v>238</v>
-      </c>
-      <c r="O15" s="108" cm="1">
-        <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.0845</v>
-      </c>
-      <c r="P15" s="54"/>
-    </row>
-    <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="113" t="s">
+      <c r="F16" s="100">
+        <f t="shared" si="3"/>
+        <v>-7.9122432666903553E-2</v>
+      </c>
+      <c r="G16" s="99">
+        <f t="shared" si="3"/>
+        <v>0.25443786982248517</v>
+      </c>
+      <c r="H16" s="99">
+        <f t="shared" si="3"/>
+        <v>0.21509433962264146</v>
+      </c>
+      <c r="I16" s="99">
+        <f t="shared" si="3"/>
+        <v>-1.1645962732919291E-2</v>
+      </c>
+      <c r="J16" s="101">
+        <f t="shared" si="3"/>
+        <v>5.2631578947368363E-2</v>
+      </c>
+      <c r="K16" s="101">
+        <f>AVERAGE(F16:J16)</f>
+        <v>8.6279078598534426E-2</v>
+      </c>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="71" t="s">
+        <v>239</v>
+      </c>
+      <c r="O16" s="102">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="48"/>
+    </row>
+    <row r="17" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="105" t="s">
+        <v>200</v>
+      </c>
+      <c r="B17" s="106">
+        <f>B15/B10</f>
+        <v>0.12285981858363038</v>
+      </c>
+      <c r="C17" s="106">
+        <f t="shared" ref="C17:J17" si="4">C15/C10</f>
+        <v>0.176835959193341</v>
+      </c>
+      <c r="D17" s="106">
+        <f t="shared" si="4"/>
+        <v>0.12628884936404272</v>
+      </c>
+      <c r="E17" s="108">
+        <f t="shared" si="4"/>
+        <v>0.14658014270431499</v>
+      </c>
+      <c r="F17" s="106">
+        <f t="shared" si="4"/>
+        <v>0.14365861951717104</v>
+      </c>
+      <c r="G17" s="106">
+        <f t="shared" si="4"/>
+        <v>0.16124125342257378</v>
+      </c>
+      <c r="H17" s="106">
+        <f t="shared" si="4"/>
+        <v>0.17864077669902911</v>
+      </c>
+      <c r="I17" s="106">
+        <f t="shared" si="4"/>
+        <v>0.16113924050632911</v>
+      </c>
+      <c r="J17" s="108">
+        <f t="shared" si="4"/>
+        <v>0.15764705882352942</v>
+      </c>
+      <c r="K17" s="108"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="111" t="s">
+        <v>235</v>
+      </c>
+      <c r="O17" s="112">
+        <f>(O14)+((O15)*(O16-O14))</f>
+        <v>9.7411200000000003E-2</v>
+      </c>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="48"/>
+      <c r="R17" s="48"/>
+    </row>
+    <row r="18" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="113" t="s">
         <v>196</v>
       </c>
-      <c r="B16" s="82">
+      <c r="B18" s="114">
         <v>0.19644436780425098</v>
       </c>
-      <c r="C16" s="82">
+      <c r="C18" s="114">
         <v>0.19851664473286734</v>
       </c>
-      <c r="D16" s="82">
+      <c r="D18" s="114">
         <v>0.27612947826763329</v>
       </c>
-      <c r="E16" s="82">
+      <c r="E18" s="114">
         <v>0.36784389588795807</v>
       </c>
-      <c r="F16" s="80"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="80"/>
-      <c r="L16" s="75"/>
-      <c r="M16" s="75"/>
-      <c r="N16" s="84" t="s">
-        <v>239</v>
-      </c>
-      <c r="O16" s="106">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="P16" s="54"/>
-    </row>
-    <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="75"/>
-      <c r="B17" s="78"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="75"/>
-      <c r="M17" s="75"/>
-      <c r="N17" s="92" t="s">
-        <v>235</v>
-      </c>
-      <c r="O17" s="109">
-        <f>(O14)+((O15)*(O16-O14))</f>
-        <v>8.7003975000000011E-2</v>
-      </c>
-      <c r="P17" s="54"/>
-    </row>
-    <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="75"/>
-      <c r="B18" s="75"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="75"/>
-      <c r="K18" s="75"/>
-      <c r="L18" s="75"/>
-      <c r="M18" s="75"/>
-      <c r="N18" s="123" t="s">
+      <c r="F18" s="115"/>
+      <c r="G18" s="114"/>
+      <c r="H18" s="114"/>
+      <c r="I18" s="114"/>
+      <c r="J18" s="116"/>
+      <c r="K18" s="117"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="129" t="s">
         <v>240</v>
       </c>
-      <c r="O18" s="124"/>
-      <c r="P18" s="54"/>
-    </row>
-    <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="75"/>
-      <c r="B19" s="75"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="75"/>
-      <c r="K19" s="75"/>
-      <c r="L19" s="75"/>
-      <c r="M19" s="75"/>
-      <c r="N19" s="84" t="s">
+      <c r="O18" s="130"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="48"/>
+      <c r="R18" s="48"/>
+    </row>
+    <row r="19" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="50"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50" t="s">
+        <v>252</v>
+      </c>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="71" t="s">
         <v>222</v>
       </c>
-      <c r="O19" s="110">
+      <c r="O19" s="118">
         <f>O6+O7</f>
         <v>79970000</v>
       </c>
-      <c r="P19" s="54"/>
-    </row>
-    <row r="20" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="75"/>
-      <c r="B20" s="75"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="75"/>
-      <c r="K20" s="75"/>
-      <c r="L20" s="75"/>
-      <c r="M20" s="75"/>
-      <c r="N20" s="84" t="s">
+      <c r="P19" s="48"/>
+      <c r="Q19" s="48"/>
+      <c r="R19" s="48"/>
+    </row>
+    <row r="20" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="119"/>
+      <c r="C20" s="119"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="71" t="s">
         <v>241</v>
       </c>
-      <c r="O20" s="110" cm="1">
-        <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>40260920000</v>
-      </c>
-      <c r="P20" s="54"/>
-    </row>
-    <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="75"/>
-      <c r="B21" s="75"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="75"/>
-      <c r="K21" s="75"/>
-      <c r="M21" s="75"/>
-      <c r="N21" s="84" t="s">
+      <c r="O20" s="118">
+        <f>A3</f>
+        <v>42268450000</v>
+      </c>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="48"/>
+    </row>
+    <row r="21" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="131" t="str" cm="1">
+        <f t="array" ref="A21">_FV(A1,"Industry")</f>
+        <v>Freight &amp; Logistics Services</v>
+      </c>
+      <c r="B21" s="131"/>
+      <c r="C21" s="132" cm="1">
+        <f t="array" ref="C21">_FV(A1,"Year incorporated",TRUE)</f>
+        <v>1950</v>
+      </c>
+      <c r="D21" s="132"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="71" t="s">
         <v>242</v>
       </c>
-      <c r="O21" s="110">
+      <c r="O21" s="118">
         <f>O19+O20</f>
-        <v>40340890000</v>
-      </c>
-      <c r="P21" s="54"/>
-    </row>
-    <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="75"/>
-      <c r="B22" s="75"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="75"/>
-      <c r="I22" s="75"/>
-      <c r="J22" s="75"/>
-      <c r="K22" s="75"/>
-      <c r="L22" s="75"/>
-      <c r="M22" s="75"/>
-      <c r="N22" s="85" t="s">
+        <v>42348420000</v>
+      </c>
+      <c r="P21" s="48"/>
+      <c r="Q21" s="48"/>
+      <c r="R21" s="48"/>
+    </row>
+    <row r="22" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="131" t="str" cm="1">
+        <f t="array" ref="A22">_FV(A1,"Description")</f>
+        <v>Old Dominion Freight Line, Inc. is a North American less-than-truckload (LTL) motor carriers. The Company provides regional, inter-regional and national LTL services through a single integrated, union-free organization. Its service offerings include expedited transportation, which is provided through a network of service centers located throughout the continental United States. It offers a range of value-added services including container drayage, truckload brokerage, and supply chain consulting. It operates approximately 255 service center locations, of which the Company owns 231 and leases 24. Its service centers are responsible for the pickup and delivery of freight within their local service area. Its system offers its customers access to information such as freight tracking, shipping documents, rate quotes, rate databases, and account activity. These centralized systems and its customer service department provide its customers with a single point of contact to access information.</v>
+      </c>
+      <c r="B22" s="131"/>
+      <c r="C22" s="131"/>
+      <c r="D22" s="131"/>
+      <c r="E22" s="131"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="86" t="s">
         <v>243</v>
       </c>
-      <c r="O22" s="111">
+      <c r="O22" s="120">
         <f>(O19/O21)</f>
-        <v>1.9823558677064387E-3</v>
-      </c>
-      <c r="P22" s="54"/>
-    </row>
-    <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="75"/>
-      <c r="B23" s="75"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="75"/>
-      <c r="J23" s="75"/>
-      <c r="K23" s="75"/>
-      <c r="L23" s="75"/>
-      <c r="M23" s="75"/>
-      <c r="N23" s="92" t="s">
+        <v>1.8883821403490378E-3</v>
+      </c>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="48"/>
+      <c r="R22" s="48"/>
+    </row>
+    <row r="23" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="131"/>
+      <c r="B23" s="131"/>
+      <c r="C23" s="131"/>
+      <c r="D23" s="131"/>
+      <c r="E23" s="131"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="111" t="s">
         <v>244</v>
       </c>
-      <c r="O23" s="112">
+      <c r="O23" s="121">
         <f>O20/O21</f>
-        <v>0.99801764413229355</v>
-      </c>
-      <c r="P23" s="54"/>
-    </row>
-    <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="75"/>
-      <c r="B24" s="75"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="75"/>
-      <c r="K24" s="75"/>
-      <c r="L24" s="75"/>
-      <c r="M24" s="75"/>
-      <c r="N24" s="116" t="s">
+        <v>0.99811161785965097</v>
+      </c>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="48"/>
+      <c r="R23" s="48"/>
+    </row>
+    <row r="24" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="131"/>
+      <c r="B24" s="131"/>
+      <c r="C24" s="131"/>
+      <c r="D24" s="131"/>
+      <c r="E24" s="131"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="122" t="s">
         <v>245</v>
       </c>
-      <c r="O24" s="117"/>
-      <c r="P24" s="54"/>
-    </row>
-    <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="75"/>
-      <c r="B25" s="75"/>
-      <c r="C25" s="75"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="75"/>
-      <c r="J25" s="75"/>
-      <c r="K25" s="75"/>
-      <c r="L25" s="75"/>
-      <c r="M25" s="75"/>
-      <c r="N25" s="118">
+      <c r="O24" s="123"/>
+      <c r="P24" s="48"/>
+      <c r="Q24" s="48"/>
+      <c r="R24" s="48"/>
+    </row>
+    <row r="25" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="131"/>
+      <c r="B25" s="131"/>
+      <c r="C25" s="131"/>
+      <c r="D25" s="131"/>
+      <c r="E25" s="131"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="124">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>8.6860630742517958E-2</v>
-      </c>
-      <c r="O25" s="119"/>
-      <c r="P25" s="54"/>
-    </row>
-    <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="75"/>
-      <c r="B26" s="75"/>
-      <c r="C26" s="75"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="75"/>
-      <c r="J26" s="75"/>
-      <c r="K26" s="75"/>
-      <c r="L26" s="75"/>
-      <c r="M26" s="75"/>
-      <c r="N26" s="75"/>
-      <c r="O26" s="54"/>
-      <c r="P26" s="54"/>
-    </row>
-    <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="75"/>
-      <c r="B27" s="75"/>
-      <c r="C27" s="75"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="75"/>
-      <c r="I27" s="75"/>
-      <c r="J27" s="75"/>
-      <c r="K27" s="75"/>
-      <c r="L27" s="75"/>
-      <c r="M27" s="75"/>
-      <c r="N27" s="75"/>
-      <c r="O27" s="54"/>
-      <c r="P27" s="54"/>
-    </row>
-    <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="75"/>
-      <c r="B28" s="75"/>
-      <c r="C28" s="75"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="75"/>
-      <c r="G28" s="75"/>
-      <c r="H28" s="75"/>
-      <c r="I28" s="75"/>
-      <c r="J28" s="75"/>
-      <c r="K28" s="75"/>
-      <c r="L28" s="75"/>
-      <c r="M28" s="75"/>
-      <c r="N28" s="75"/>
-      <c r="O28" s="54"/>
-      <c r="P28" s="54"/>
-    </row>
-    <row r="29" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="75"/>
-      <c r="B29" s="75"/>
-      <c r="C29" s="75"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="75"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="75"/>
-      <c r="I29" s="75"/>
-      <c r="J29" s="75"/>
-      <c r="K29" s="75"/>
-      <c r="L29" s="75"/>
-      <c r="M29" s="75"/>
-      <c r="N29" s="75"/>
-      <c r="O29" s="54"/>
-      <c r="P29" s="54"/>
-    </row>
-    <row r="30" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="75"/>
-      <c r="B30" s="75"/>
-      <c r="C30" s="75"/>
-      <c r="D30" s="75"/>
-      <c r="E30" s="75"/>
-      <c r="F30" s="75"/>
-      <c r="G30" s="75"/>
-      <c r="H30" s="75"/>
-      <c r="I30" s="75"/>
-      <c r="J30" s="75"/>
-      <c r="K30" s="75"/>
-      <c r="L30" s="75"/>
-      <c r="M30" s="75"/>
-      <c r="N30" s="75"/>
-      <c r="O30" s="54"/>
-      <c r="P30" s="54"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="54"/>
-      <c r="B31" s="54"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="54"/>
-      <c r="N31" s="54"/>
-      <c r="O31" s="54"/>
-      <c r="P31" s="54"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="54"/>
-      <c r="B32" s="54"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="54"/>
-      <c r="K32" s="54"/>
-      <c r="L32" s="54"/>
-      <c r="M32" s="54"/>
-      <c r="N32" s="54"/>
-      <c r="O32" s="54"/>
-      <c r="P32" s="54"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="75"/>
-      <c r="B33" s="75"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="75"/>
-      <c r="E33" s="75"/>
-      <c r="F33" s="75"/>
-      <c r="G33" s="75"/>
-      <c r="H33" s="75"/>
-      <c r="I33" s="75"/>
-      <c r="J33" s="75"/>
-      <c r="K33" s="75"/>
-      <c r="L33" s="75"/>
-      <c r="M33" s="75"/>
-      <c r="N33" s="75"/>
-      <c r="O33" s="75"/>
-      <c r="P33" s="75"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="75"/>
-      <c r="B34" s="75"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="75"/>
-      <c r="J34" s="75"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="75"/>
-      <c r="M34" s="75"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="75"/>
-      <c r="P34" s="75"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="75"/>
-      <c r="B35" s="75"/>
-      <c r="C35" s="75"/>
-      <c r="D35" s="75"/>
-      <c r="E35" s="75"/>
-      <c r="F35" s="75"/>
-      <c r="G35" s="75"/>
-      <c r="H35" s="75"/>
-      <c r="I35" s="75"/>
-      <c r="J35" s="75"/>
-      <c r="K35" s="75"/>
-      <c r="L35" s="75"/>
-      <c r="M35" s="75"/>
-      <c r="N35" s="75"/>
-      <c r="O35" s="75"/>
-      <c r="P35" s="75"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="75"/>
-      <c r="B36" s="75"/>
-      <c r="C36" s="75"/>
-      <c r="D36" s="75"/>
-      <c r="E36" s="75"/>
-      <c r="F36" s="75"/>
-      <c r="G36" s="75"/>
-      <c r="H36" s="75"/>
-      <c r="I36" s="75"/>
-      <c r="J36" s="75"/>
-      <c r="K36" s="75"/>
-      <c r="L36" s="75"/>
-      <c r="M36" s="75"/>
-      <c r="N36" s="75"/>
-      <c r="O36" s="75"/>
-      <c r="P36" s="75"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="75"/>
-      <c r="B37" s="75"/>
-      <c r="C37" s="75"/>
-      <c r="D37" s="75"/>
-      <c r="E37" s="75"/>
-      <c r="F37" s="75"/>
-      <c r="G37" s="75"/>
-      <c r="H37" s="75"/>
-      <c r="I37" s="75"/>
-      <c r="J37" s="75"/>
-      <c r="K37" s="75"/>
-      <c r="L37" s="75"/>
-      <c r="M37" s="75"/>
-      <c r="N37" s="75"/>
-      <c r="O37" s="75"/>
-      <c r="P37" s="75"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="75"/>
-      <c r="B38" s="75"/>
-      <c r="C38" s="75"/>
-      <c r="D38" s="75"/>
-      <c r="E38" s="75"/>
-      <c r="F38" s="75"/>
-      <c r="G38" s="75"/>
-      <c r="H38" s="75"/>
-      <c r="I38" s="75"/>
-      <c r="J38" s="75"/>
-      <c r="K38" s="75"/>
-      <c r="L38" s="75"/>
-      <c r="M38" s="75"/>
-      <c r="N38" s="75"/>
-      <c r="O38" s="75"/>
-      <c r="P38" s="75"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="75"/>
-      <c r="B39" s="75"/>
-      <c r="C39" s="75"/>
-      <c r="D39" s="75"/>
-      <c r="E39" s="75"/>
-      <c r="F39" s="75"/>
-      <c r="G39" s="75"/>
-      <c r="H39" s="75"/>
-      <c r="I39" s="75"/>
-      <c r="J39" s="75"/>
-      <c r="K39" s="75"/>
-      <c r="L39" s="75"/>
-      <c r="M39" s="75"/>
-      <c r="N39" s="75"/>
-      <c r="O39" s="75"/>
-      <c r="P39" s="75"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="75"/>
-      <c r="B40" s="75"/>
-      <c r="C40" s="75"/>
-      <c r="D40" s="75"/>
-      <c r="E40" s="75"/>
-      <c r="F40" s="75"/>
-      <c r="G40" s="75"/>
-      <c r="H40" s="75"/>
-      <c r="I40" s="75"/>
-      <c r="J40" s="75"/>
-      <c r="K40" s="75"/>
-      <c r="L40" s="75"/>
-      <c r="M40" s="75"/>
-      <c r="N40" s="75"/>
-      <c r="O40" s="75"/>
-      <c r="P40" s="75"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="75"/>
-      <c r="B41" s="75"/>
-      <c r="C41" s="75"/>
-      <c r="D41" s="75"/>
-      <c r="E41" s="75"/>
-      <c r="F41" s="75"/>
-      <c r="G41" s="75"/>
-      <c r="H41" s="75"/>
-      <c r="I41" s="75"/>
-      <c r="J41" s="75"/>
-      <c r="K41" s="75"/>
-      <c r="L41" s="75"/>
-      <c r="M41" s="75"/>
-      <c r="N41" s="75"/>
-      <c r="O41" s="75"/>
-      <c r="P41" s="75"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="75"/>
-      <c r="B42" s="75"/>
-      <c r="C42" s="75"/>
-      <c r="D42" s="75"/>
-      <c r="E42" s="75"/>
-      <c r="F42" s="75"/>
-      <c r="G42" s="75"/>
-      <c r="H42" s="75"/>
-      <c r="I42" s="75"/>
-      <c r="J42" s="75"/>
-      <c r="K42" s="75"/>
-      <c r="L42" s="75"/>
-      <c r="M42" s="75"/>
-      <c r="N42" s="75"/>
-      <c r="O42" s="75"/>
-      <c r="P42" s="75"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="75"/>
-      <c r="B43" s="75"/>
-      <c r="C43" s="75"/>
-      <c r="D43" s="75"/>
-      <c r="E43" s="75"/>
-      <c r="F43" s="75"/>
-      <c r="G43" s="75"/>
-      <c r="H43" s="75"/>
-      <c r="I43" s="75"/>
-      <c r="J43" s="75"/>
-      <c r="K43" s="75"/>
-      <c r="L43" s="75"/>
-      <c r="M43" s="75"/>
-      <c r="N43" s="75"/>
-      <c r="O43" s="75"/>
-      <c r="P43" s="75"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="75"/>
-      <c r="B44" s="75"/>
-      <c r="C44" s="75"/>
-      <c r="D44" s="75"/>
-      <c r="E44" s="75"/>
-      <c r="F44" s="75"/>
-      <c r="G44" s="75"/>
-      <c r="H44" s="75"/>
-      <c r="I44" s="75"/>
-      <c r="J44" s="75"/>
-      <c r="K44" s="75"/>
-      <c r="L44" s="75"/>
-      <c r="M44" s="75"/>
-      <c r="N44" s="75"/>
-      <c r="O44" s="75"/>
-      <c r="P44" s="75"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="75"/>
-      <c r="B45" s="75"/>
-      <c r="C45" s="75"/>
-      <c r="D45" s="75"/>
-      <c r="E45" s="75"/>
-      <c r="F45" s="75"/>
-      <c r="G45" s="75"/>
-      <c r="H45" s="75"/>
-      <c r="I45" s="75"/>
-      <c r="J45" s="75"/>
-      <c r="K45" s="75"/>
-      <c r="L45" s="75"/>
-      <c r="M45" s="75"/>
-      <c r="N45" s="75"/>
-      <c r="O45" s="75"/>
-      <c r="P45" s="75"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="75"/>
-      <c r="B46" s="75"/>
-      <c r="C46" s="75"/>
-      <c r="D46" s="75"/>
-      <c r="E46" s="75"/>
-      <c r="F46" s="75"/>
-      <c r="G46" s="75"/>
-      <c r="H46" s="75"/>
-      <c r="I46" s="75"/>
-      <c r="J46" s="75"/>
-      <c r="K46" s="75"/>
-      <c r="L46" s="75"/>
-      <c r="M46" s="75"/>
-      <c r="N46" s="75"/>
-      <c r="O46" s="75"/>
-      <c r="P46" s="75"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="75"/>
-      <c r="B47" s="75"/>
-      <c r="C47" s="75"/>
-      <c r="D47" s="75"/>
-      <c r="E47" s="75"/>
-      <c r="F47" s="75"/>
-      <c r="G47" s="75"/>
-      <c r="H47" s="75"/>
-      <c r="I47" s="75"/>
-      <c r="J47" s="75"/>
-      <c r="K47" s="75"/>
-      <c r="L47" s="75"/>
-      <c r="M47" s="75"/>
-      <c r="N47" s="75"/>
-      <c r="O47" s="75"/>
-      <c r="P47" s="75"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="75"/>
-      <c r="B48" s="75"/>
-      <c r="C48" s="75"/>
-      <c r="D48" s="75"/>
-      <c r="E48" s="75"/>
-      <c r="F48" s="75"/>
-      <c r="G48" s="75"/>
-      <c r="H48" s="75"/>
-      <c r="I48" s="75"/>
-      <c r="J48" s="75"/>
-      <c r="K48" s="75"/>
-      <c r="L48" s="75"/>
-      <c r="M48" s="75"/>
-      <c r="N48" s="75"/>
-      <c r="O48" s="75"/>
-      <c r="P48" s="75"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="75"/>
-      <c r="B49" s="75"/>
-      <c r="C49" s="75"/>
-      <c r="D49" s="75"/>
-      <c r="E49" s="75"/>
-      <c r="F49" s="75"/>
-      <c r="G49" s="75"/>
-      <c r="H49" s="75"/>
-      <c r="I49" s="75"/>
-      <c r="J49" s="75"/>
-      <c r="K49" s="75"/>
-      <c r="L49" s="75"/>
-      <c r="M49" s="75"/>
-      <c r="N49" s="75"/>
-      <c r="O49" s="75"/>
-      <c r="P49" s="75"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="75"/>
-      <c r="B50" s="75"/>
-      <c r="C50" s="75"/>
-      <c r="D50" s="75"/>
-      <c r="E50" s="75"/>
-      <c r="F50" s="75"/>
-      <c r="G50" s="75"/>
-      <c r="H50" s="75"/>
-      <c r="I50" s="75"/>
-      <c r="J50" s="75"/>
-      <c r="K50" s="75"/>
-      <c r="L50" s="75"/>
-      <c r="M50" s="75"/>
-      <c r="N50" s="75"/>
-      <c r="O50" s="75"/>
-      <c r="P50" s="75"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="75"/>
-      <c r="B51" s="75"/>
-      <c r="C51" s="75"/>
-      <c r="D51" s="75"/>
-      <c r="E51" s="75"/>
-      <c r="F51" s="75"/>
-      <c r="G51" s="75"/>
-      <c r="H51" s="75"/>
-      <c r="I51" s="75"/>
-      <c r="J51" s="75"/>
-      <c r="K51" s="75"/>
-      <c r="L51" s="75"/>
-      <c r="M51" s="75"/>
-      <c r="N51" s="75"/>
-      <c r="O51" s="75"/>
-      <c r="P51" s="75"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="75"/>
-      <c r="B52" s="75"/>
-      <c r="C52" s="75"/>
-      <c r="D52" s="75"/>
-      <c r="E52" s="75"/>
-      <c r="F52" s="75"/>
-      <c r="G52" s="75"/>
-      <c r="H52" s="75"/>
-      <c r="I52" s="75"/>
-      <c r="J52" s="75"/>
-      <c r="K52" s="75"/>
-      <c r="L52" s="75"/>
-      <c r="M52" s="75"/>
-      <c r="N52" s="75"/>
-      <c r="O52" s="75"/>
-      <c r="P52" s="75"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="75"/>
-      <c r="B53" s="75"/>
-      <c r="C53" s="75"/>
-      <c r="D53" s="75"/>
-      <c r="E53" s="75"/>
-      <c r="F53" s="75"/>
-      <c r="G53" s="75"/>
-      <c r="H53" s="75"/>
-      <c r="I53" s="75"/>
-      <c r="J53" s="75"/>
-      <c r="K53" s="75"/>
-      <c r="L53" s="75"/>
-      <c r="M53" s="75"/>
-      <c r="N53" s="75"/>
-      <c r="O53" s="75"/>
-      <c r="P53" s="75"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="75"/>
-      <c r="B54" s="75"/>
-      <c r="C54" s="75"/>
-      <c r="D54" s="75"/>
-      <c r="E54" s="75"/>
-      <c r="F54" s="75"/>
-      <c r="G54" s="75"/>
-      <c r="H54" s="75"/>
-      <c r="I54" s="75"/>
-      <c r="J54" s="75"/>
-      <c r="K54" s="75"/>
-      <c r="L54" s="75"/>
-      <c r="M54" s="75"/>
-      <c r="N54" s="75"/>
-      <c r="O54" s="75"/>
-      <c r="P54" s="75"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="75"/>
-      <c r="B55" s="75"/>
-      <c r="C55" s="75"/>
-      <c r="D55" s="75"/>
-      <c r="E55" s="75"/>
-      <c r="F55" s="75"/>
-      <c r="G55" s="75"/>
-      <c r="H55" s="75"/>
-      <c r="I55" s="75"/>
-      <c r="J55" s="75"/>
-      <c r="K55" s="75"/>
-      <c r="L55" s="75"/>
-      <c r="M55" s="75"/>
-      <c r="N55" s="75"/>
-      <c r="O55" s="75"/>
-      <c r="P55" s="75"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="75"/>
-      <c r="B56" s="75"/>
-      <c r="C56" s="75"/>
-      <c r="D56" s="75"/>
-      <c r="E56" s="75"/>
-      <c r="F56" s="75"/>
-      <c r="G56" s="75"/>
-      <c r="H56" s="75"/>
-      <c r="I56" s="75"/>
-      <c r="J56" s="75"/>
-      <c r="K56" s="75"/>
-      <c r="L56" s="75"/>
-      <c r="M56" s="75"/>
-      <c r="N56" s="75"/>
-      <c r="O56" s="75"/>
-      <c r="P56" s="75"/>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" s="75"/>
-      <c r="B57" s="75"/>
-      <c r="C57" s="75"/>
-      <c r="D57" s="75"/>
-      <c r="E57" s="75"/>
-      <c r="F57" s="75"/>
-      <c r="G57" s="75"/>
-      <c r="H57" s="75"/>
-      <c r="I57" s="75"/>
-      <c r="J57" s="75"/>
-      <c r="K57" s="75"/>
-      <c r="L57" s="75"/>
-      <c r="M57" s="75"/>
-      <c r="N57" s="75"/>
-      <c r="O57" s="75"/>
-      <c r="P57" s="75"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="75"/>
-      <c r="B58" s="75"/>
-      <c r="C58" s="75"/>
-      <c r="D58" s="75"/>
-      <c r="E58" s="75"/>
-      <c r="F58" s="75"/>
-      <c r="G58" s="75"/>
-      <c r="H58" s="75"/>
-      <c r="I58" s="75"/>
-      <c r="J58" s="75"/>
-      <c r="K58" s="75"/>
-      <c r="L58" s="75"/>
-      <c r="M58" s="75"/>
-      <c r="N58" s="75"/>
-      <c r="O58" s="75"/>
-      <c r="P58" s="75"/>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="75"/>
-      <c r="B59" s="75"/>
-      <c r="C59" s="75"/>
-      <c r="D59" s="75"/>
-      <c r="E59" s="75"/>
-      <c r="F59" s="75"/>
-      <c r="G59" s="75"/>
-      <c r="H59" s="75"/>
-      <c r="I59" s="75"/>
-      <c r="J59" s="75"/>
-      <c r="K59" s="75"/>
-      <c r="L59" s="75"/>
-      <c r="M59" s="75"/>
-      <c r="N59" s="75"/>
-      <c r="O59" s="75"/>
-      <c r="P59" s="75"/>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="75"/>
-      <c r="B60" s="75"/>
-      <c r="C60" s="75"/>
-      <c r="D60" s="75"/>
-      <c r="E60" s="75"/>
-      <c r="F60" s="75"/>
-      <c r="G60" s="75"/>
-      <c r="H60" s="75"/>
-      <c r="I60" s="75"/>
-      <c r="J60" s="75"/>
-      <c r="K60" s="75"/>
-      <c r="L60" s="75"/>
-      <c r="M60" s="75"/>
-      <c r="N60" s="75"/>
-      <c r="O60" s="75"/>
-      <c r="P60" s="75"/>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="75"/>
-      <c r="B61" s="75"/>
-      <c r="C61" s="75"/>
-      <c r="D61" s="75"/>
-      <c r="E61" s="75"/>
-      <c r="F61" s="75"/>
-      <c r="G61" s="75"/>
-      <c r="H61" s="75"/>
-      <c r="I61" s="75"/>
-      <c r="J61" s="75"/>
-      <c r="K61" s="75"/>
-      <c r="L61" s="75"/>
-      <c r="M61" s="75"/>
-      <c r="N61" s="75"/>
-      <c r="O61" s="75"/>
-      <c r="P61" s="75"/>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O62" s="54"/>
-      <c r="P62" s="54"/>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O63" s="54"/>
-      <c r="P63" s="54"/>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O64" s="54"/>
-      <c r="P64" s="54"/>
+        <v>9.7087324564619298E-2</v>
+      </c>
+      <c r="O25" s="125"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="48"/>
+      <c r="R25" s="48"/>
+    </row>
+    <row r="26" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="131"/>
+      <c r="B26" s="131"/>
+      <c r="C26" s="131"/>
+      <c r="D26" s="131"/>
+      <c r="E26" s="131"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="48"/>
+      <c r="Q26" s="48"/>
+      <c r="R26" s="48"/>
+    </row>
+    <row r="27" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="131"/>
+      <c r="B27" s="131"/>
+      <c r="C27" s="131"/>
+      <c r="D27" s="131"/>
+      <c r="E27" s="131"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="48"/>
+      <c r="Q27" s="48"/>
+      <c r="R27" s="48"/>
+    </row>
+    <row r="28" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="131"/>
+      <c r="B28" s="131"/>
+      <c r="C28" s="131"/>
+      <c r="D28" s="131"/>
+      <c r="E28" s="131"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="48"/>
+      <c r="P28" s="48"/>
+      <c r="Q28" s="48"/>
+      <c r="R28" s="48"/>
+    </row>
+    <row r="29" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="131"/>
+      <c r="B29" s="131"/>
+      <c r="C29" s="131"/>
+      <c r="D29" s="131"/>
+      <c r="E29" s="131"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="48"/>
+      <c r="P29" s="48"/>
+      <c r="Q29" s="48"/>
+      <c r="R29" s="48"/>
+    </row>
+    <row r="30" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="131"/>
+      <c r="B30" s="131"/>
+      <c r="C30" s="131"/>
+      <c r="D30" s="131"/>
+      <c r="E30" s="131"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="48"/>
+      <c r="P30" s="48"/>
+      <c r="Q30" s="48"/>
+      <c r="R30" s="48"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" s="48"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="48"/>
+      <c r="N31" s="48"/>
+      <c r="O31" s="48"/>
+      <c r="P31" s="48"/>
+      <c r="Q31" s="48"/>
+      <c r="R31" s="48"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32" s="48"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="48"/>
+      <c r="N32" s="48"/>
+      <c r="O32" s="48"/>
+      <c r="P32" s="48"/>
+      <c r="Q32" s="48"/>
+      <c r="R32" s="48"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A33" s="50"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="50"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="50"/>
+      <c r="P33" s="50"/>
+      <c r="Q33" s="48"/>
+      <c r="R33" s="48"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A34" s="50"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="50"/>
+      <c r="N34" s="50"/>
+      <c r="O34" s="50"/>
+      <c r="P34" s="50"/>
+      <c r="Q34" s="48"/>
+      <c r="R34" s="48"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A35" s="50"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="50"/>
+      <c r="N35" s="50"/>
+      <c r="O35" s="50"/>
+      <c r="P35" s="50"/>
+      <c r="Q35" s="48"/>
+      <c r="R35" s="48"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A36" s="50"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="50"/>
+      <c r="L36" s="50"/>
+      <c r="M36" s="50"/>
+      <c r="N36" s="50"/>
+      <c r="O36" s="50"/>
+      <c r="P36" s="50"/>
+      <c r="Q36" s="48"/>
+      <c r="R36" s="48"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A37" s="50"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="50"/>
+      <c r="M37" s="50"/>
+      <c r="N37" s="50"/>
+      <c r="O37" s="50"/>
+      <c r="P37" s="50"/>
+      <c r="Q37" s="48"/>
+      <c r="R37" s="48"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A38" s="50"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="50"/>
+      <c r="K38" s="50"/>
+      <c r="L38" s="50"/>
+      <c r="M38" s="50"/>
+      <c r="N38" s="50"/>
+      <c r="O38" s="50"/>
+      <c r="P38" s="50"/>
+      <c r="Q38" s="48"/>
+      <c r="R38" s="48"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A39" s="50"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="50"/>
+      <c r="K39" s="50"/>
+      <c r="L39" s="50"/>
+      <c r="M39" s="50"/>
+      <c r="N39" s="50"/>
+      <c r="O39" s="50"/>
+      <c r="P39" s="50"/>
+      <c r="Q39" s="48"/>
+      <c r="R39" s="48"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40" s="50"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="50"/>
+      <c r="K40" s="50"/>
+      <c r="L40" s="50"/>
+      <c r="M40" s="50"/>
+      <c r="N40" s="50"/>
+      <c r="O40" s="50"/>
+      <c r="P40" s="50"/>
+      <c r="Q40" s="48"/>
+      <c r="R40" s="48"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A41" s="50"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="50"/>
+      <c r="I41" s="50"/>
+      <c r="J41" s="50"/>
+      <c r="K41" s="50"/>
+      <c r="L41" s="50"/>
+      <c r="M41" s="50"/>
+      <c r="N41" s="50"/>
+      <c r="O41" s="50"/>
+      <c r="P41" s="50"/>
+      <c r="Q41" s="48"/>
+      <c r="R41" s="48"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A42" s="50"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="50"/>
+      <c r="K42" s="50"/>
+      <c r="L42" s="50"/>
+      <c r="M42" s="50"/>
+      <c r="N42" s="50"/>
+      <c r="O42" s="50"/>
+      <c r="P42" s="50"/>
+      <c r="Q42" s="48"/>
+      <c r="R42" s="48"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A43" s="50"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="50"/>
+      <c r="J43" s="50"/>
+      <c r="K43" s="50"/>
+      <c r="L43" s="50"/>
+      <c r="M43" s="50"/>
+      <c r="N43" s="50"/>
+      <c r="O43" s="50"/>
+      <c r="P43" s="50"/>
+      <c r="Q43" s="48"/>
+      <c r="R43" s="48"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A44" s="50"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="50"/>
+      <c r="J44" s="50"/>
+      <c r="K44" s="50"/>
+      <c r="L44" s="50"/>
+      <c r="M44" s="50"/>
+      <c r="N44" s="50"/>
+      <c r="O44" s="50"/>
+      <c r="P44" s="50"/>
+      <c r="Q44" s="48"/>
+      <c r="R44" s="48"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45" s="50"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="50"/>
+      <c r="H45" s="50"/>
+      <c r="I45" s="50"/>
+      <c r="J45" s="50"/>
+      <c r="K45" s="50"/>
+      <c r="L45" s="50"/>
+      <c r="M45" s="50"/>
+      <c r="N45" s="50"/>
+      <c r="O45" s="50"/>
+      <c r="P45" s="50"/>
+      <c r="Q45" s="48"/>
+      <c r="R45" s="48"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A46" s="50"/>
+      <c r="B46" s="50"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="50"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="50"/>
+      <c r="J46" s="50"/>
+      <c r="K46" s="50"/>
+      <c r="L46" s="50"/>
+      <c r="M46" s="50"/>
+      <c r="N46" s="50"/>
+      <c r="O46" s="50"/>
+      <c r="P46" s="50"/>
+      <c r="Q46" s="48"/>
+      <c r="R46" s="48"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A47" s="50"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="50"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="50"/>
+      <c r="H47" s="50"/>
+      <c r="I47" s="50"/>
+      <c r="J47" s="50"/>
+      <c r="K47" s="50"/>
+      <c r="L47" s="50"/>
+      <c r="M47" s="50"/>
+      <c r="N47" s="50"/>
+      <c r="O47" s="50"/>
+      <c r="P47" s="50"/>
+      <c r="Q47" s="48"/>
+      <c r="R47" s="48"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A48" s="50"/>
+      <c r="B48" s="50"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="50"/>
+      <c r="H48" s="50"/>
+      <c r="I48" s="50"/>
+      <c r="J48" s="50"/>
+      <c r="K48" s="50"/>
+      <c r="L48" s="50"/>
+      <c r="M48" s="50"/>
+      <c r="N48" s="50"/>
+      <c r="O48" s="50"/>
+      <c r="P48" s="50"/>
+      <c r="Q48" s="48"/>
+      <c r="R48" s="48"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A49" s="50"/>
+      <c r="B49" s="50"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="50"/>
+      <c r="H49" s="50"/>
+      <c r="I49" s="50"/>
+      <c r="J49" s="50"/>
+      <c r="K49" s="50"/>
+      <c r="L49" s="50"/>
+      <c r="M49" s="50"/>
+      <c r="N49" s="50"/>
+      <c r="O49" s="50"/>
+      <c r="P49" s="50"/>
+      <c r="Q49" s="48"/>
+      <c r="R49" s="48"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A50" s="50"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="50"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="50"/>
+      <c r="G50" s="50"/>
+      <c r="H50" s="50"/>
+      <c r="I50" s="50"/>
+      <c r="J50" s="50"/>
+      <c r="K50" s="50"/>
+      <c r="L50" s="50"/>
+      <c r="M50" s="50"/>
+      <c r="N50" s="50"/>
+      <c r="O50" s="50"/>
+      <c r="P50" s="50"/>
+      <c r="Q50" s="48"/>
+      <c r="R50" s="48"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A51" s="50"/>
+      <c r="B51" s="50"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="50"/>
+      <c r="I51" s="50"/>
+      <c r="J51" s="50"/>
+      <c r="K51" s="50"/>
+      <c r="L51" s="50"/>
+      <c r="M51" s="50"/>
+      <c r="N51" s="50"/>
+      <c r="O51" s="50"/>
+      <c r="P51" s="50"/>
+      <c r="Q51" s="48"/>
+      <c r="R51" s="48"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A52" s="50"/>
+      <c r="B52" s="50"/>
+      <c r="C52" s="50"/>
+      <c r="D52" s="50"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="50"/>
+      <c r="G52" s="50"/>
+      <c r="H52" s="50"/>
+      <c r="I52" s="50"/>
+      <c r="J52" s="50"/>
+      <c r="K52" s="50"/>
+      <c r="L52" s="50"/>
+      <c r="M52" s="50"/>
+      <c r="N52" s="50"/>
+      <c r="O52" s="50"/>
+      <c r="P52" s="50"/>
+      <c r="Q52" s="48"/>
+      <c r="R52" s="48"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A53" s="50"/>
+      <c r="B53" s="50"/>
+      <c r="C53" s="50"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="50"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="50"/>
+      <c r="I53" s="50"/>
+      <c r="J53" s="50"/>
+      <c r="K53" s="50"/>
+      <c r="L53" s="50"/>
+      <c r="M53" s="50"/>
+      <c r="N53" s="50"/>
+      <c r="O53" s="50"/>
+      <c r="P53" s="50"/>
+      <c r="Q53" s="48"/>
+      <c r="R53" s="48"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A54" s="50"/>
+      <c r="B54" s="50"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="50"/>
+      <c r="E54" s="50"/>
+      <c r="F54" s="50"/>
+      <c r="G54" s="50"/>
+      <c r="H54" s="50"/>
+      <c r="I54" s="50"/>
+      <c r="J54" s="50"/>
+      <c r="K54" s="50"/>
+      <c r="L54" s="50"/>
+      <c r="M54" s="50"/>
+      <c r="N54" s="50"/>
+      <c r="O54" s="50"/>
+      <c r="P54" s="50"/>
+      <c r="Q54" s="48"/>
+      <c r="R54" s="48"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A55" s="50"/>
+      <c r="B55" s="50"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="50"/>
+      <c r="E55" s="50"/>
+      <c r="F55" s="50"/>
+      <c r="G55" s="50"/>
+      <c r="H55" s="50"/>
+      <c r="I55" s="50"/>
+      <c r="J55" s="50"/>
+      <c r="K55" s="50"/>
+      <c r="L55" s="50"/>
+      <c r="M55" s="50"/>
+      <c r="N55" s="50"/>
+      <c r="O55" s="50"/>
+      <c r="P55" s="50"/>
+      <c r="Q55" s="48"/>
+      <c r="R55" s="48"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A56" s="50"/>
+      <c r="B56" s="50"/>
+      <c r="C56" s="50"/>
+      <c r="D56" s="50"/>
+      <c r="E56" s="50"/>
+      <c r="F56" s="50"/>
+      <c r="G56" s="50"/>
+      <c r="H56" s="50"/>
+      <c r="I56" s="50"/>
+      <c r="J56" s="50"/>
+      <c r="K56" s="50"/>
+      <c r="L56" s="50"/>
+      <c r="M56" s="50"/>
+      <c r="N56" s="50"/>
+      <c r="O56" s="50"/>
+      <c r="P56" s="50"/>
+      <c r="Q56" s="48"/>
+      <c r="R56" s="48"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A57" s="50"/>
+      <c r="B57" s="50"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="50"/>
+      <c r="E57" s="50"/>
+      <c r="F57" s="50"/>
+      <c r="G57" s="50"/>
+      <c r="H57" s="50"/>
+      <c r="I57" s="50"/>
+      <c r="J57" s="50"/>
+      <c r="K57" s="50"/>
+      <c r="L57" s="50"/>
+      <c r="M57" s="50"/>
+      <c r="N57" s="50"/>
+      <c r="O57" s="50"/>
+      <c r="P57" s="50"/>
+      <c r="Q57" s="48"/>
+      <c r="R57" s="48"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A58" s="50"/>
+      <c r="B58" s="50"/>
+      <c r="C58" s="50"/>
+      <c r="D58" s="50"/>
+      <c r="E58" s="50"/>
+      <c r="F58" s="50"/>
+      <c r="G58" s="50"/>
+      <c r="H58" s="50"/>
+      <c r="I58" s="50"/>
+      <c r="J58" s="50"/>
+      <c r="K58" s="50"/>
+      <c r="L58" s="50"/>
+      <c r="M58" s="50"/>
+      <c r="N58" s="50"/>
+      <c r="O58" s="50"/>
+      <c r="P58" s="50"/>
+      <c r="Q58" s="48"/>
+      <c r="R58" s="48"/>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A59" s="50"/>
+      <c r="B59" s="50"/>
+      <c r="C59" s="50"/>
+      <c r="D59" s="50"/>
+      <c r="E59" s="50"/>
+      <c r="F59" s="50"/>
+      <c r="G59" s="50"/>
+      <c r="H59" s="50"/>
+      <c r="I59" s="50"/>
+      <c r="J59" s="50"/>
+      <c r="K59" s="50"/>
+      <c r="L59" s="50"/>
+      <c r="M59" s="50"/>
+      <c r="N59" s="50"/>
+      <c r="O59" s="50"/>
+      <c r="P59" s="50"/>
+      <c r="Q59" s="48"/>
+      <c r="R59" s="48"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A60" s="50"/>
+      <c r="B60" s="50"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="50"/>
+      <c r="G60" s="50"/>
+      <c r="H60" s="50"/>
+      <c r="I60" s="50"/>
+      <c r="J60" s="50"/>
+      <c r="K60" s="50"/>
+      <c r="L60" s="50"/>
+      <c r="M60" s="50"/>
+      <c r="N60" s="50"/>
+      <c r="O60" s="50"/>
+      <c r="P60" s="50"/>
+      <c r="Q60" s="48"/>
+      <c r="R60" s="48"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A61" s="50"/>
+      <c r="B61" s="50"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="50"/>
+      <c r="E61" s="50"/>
+      <c r="F61" s="50"/>
+      <c r="G61" s="50"/>
+      <c r="H61" s="50"/>
+      <c r="I61" s="50"/>
+      <c r="J61" s="50"/>
+      <c r="K61" s="50"/>
+      <c r="L61" s="50"/>
+      <c r="M61" s="50"/>
+      <c r="N61" s="50"/>
+      <c r="O61" s="50"/>
+      <c r="P61" s="50"/>
+      <c r="Q61" s="48"/>
+      <c r="R61" s="48"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O62" s="48"/>
+      <c r="P62" s="48"/>
+      <c r="Q62" s="48"/>
+      <c r="R62" s="48"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O63" s="48"/>
+      <c r="P63" s="48"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O64" s="48"/>
+      <c r="P64" s="48"/>
     </row>
     <row r="65" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O65" s="54"/>
-      <c r="P65" s="54"/>
+      <c r="O65" s="48"/>
+      <c r="P65" s="48"/>
     </row>
     <row r="66" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O66" s="54"/>
-      <c r="P66" s="54"/>
+      <c r="O66" s="48"/>
+      <c r="P66" s="48"/>
     </row>
     <row r="67" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O67" s="54"/>
-      <c r="P67" s="54"/>
+      <c r="O67" s="48"/>
+      <c r="P67" s="48"/>
     </row>
     <row r="68" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O68" s="54"/>
-      <c r="P68" s="54"/>
+      <c r="O68" s="48"/>
+      <c r="P68" s="48"/>
     </row>
     <row r="69" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O69" s="54"/>
-      <c r="P69" s="54"/>
+      <c r="O69" s="48"/>
+      <c r="P69" s="48"/>
     </row>
     <row r="70" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O70" s="54"/>
-      <c r="P70" s="54"/>
+      <c r="O70" s="48"/>
+      <c r="P70" s="48"/>
     </row>
     <row r="71" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O71" s="54"/>
-      <c r="P71" s="54"/>
+      <c r="O71" s="48"/>
+      <c r="P71" s="48"/>
     </row>
     <row r="72" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O72" s="54"/>
-      <c r="P72" s="54"/>
+      <c r="O72" s="48"/>
+      <c r="P72" s="48"/>
     </row>
     <row r="73" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O73" s="54"/>
-      <c r="P73" s="54"/>
+      <c r="O73" s="48"/>
+      <c r="P73" s="48"/>
     </row>
     <row r="74" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O74" s="54"/>
-      <c r="P74" s="54"/>
+      <c r="O74" s="48"/>
+      <c r="P74" s="48"/>
     </row>
     <row r="75" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O75" s="54"/>
-      <c r="P75" s="54"/>
+      <c r="O75" s="48"/>
+      <c r="P75" s="48"/>
     </row>
     <row r="76" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O76" s="54"/>
-      <c r="P76" s="54"/>
+      <c r="O76" s="48"/>
+      <c r="P76" s="48"/>
     </row>
     <row r="77" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O77" s="54"/>
-      <c r="P77" s="54"/>
+      <c r="O77" s="48"/>
+      <c r="P77" s="48"/>
     </row>
     <row r="78" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O78" s="54"/>
-      <c r="P78" s="54"/>
+      <c r="O78" s="48"/>
+      <c r="P78" s="48"/>
     </row>
     <row r="79" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O79" s="54"/>
-      <c r="P79" s="54"/>
+      <c r="O79" s="48"/>
+      <c r="P79" s="48"/>
     </row>
     <row r="80" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O80" s="54"/>
-      <c r="P80" s="54"/>
+      <c r="O80" s="48"/>
+      <c r="P80" s="48"/>
     </row>
     <row r="81" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O81" s="54"/>
-      <c r="P81" s="54"/>
+      <c r="O81" s="48"/>
+      <c r="P81" s="48"/>
     </row>
     <row r="82" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O82" s="54"/>
-      <c r="P82" s="54"/>
+      <c r="O82" s="48"/>
+      <c r="P82" s="48"/>
     </row>
     <row r="83" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O83" s="54"/>
-      <c r="P83" s="54"/>
+      <c r="O83" s="48"/>
+      <c r="P83" s="48"/>
     </row>
     <row r="84" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O84" s="54"/>
-      <c r="P84" s="54"/>
+      <c r="O84" s="48"/>
+      <c r="P84" s="48"/>
     </row>
     <row r="85" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O85" s="54"/>
-      <c r="P85" s="54"/>
+      <c r="O85" s="48"/>
+      <c r="P85" s="48"/>
     </row>
     <row r="86" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O86" s="54"/>
-      <c r="P86" s="54"/>
+      <c r="O86" s="48"/>
+      <c r="P86" s="48"/>
     </row>
     <row r="87" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O87" s="54"/>
-      <c r="P87" s="54"/>
+      <c r="O87" s="48"/>
+      <c r="P87" s="48"/>
     </row>
     <row r="88" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O88" s="54"/>
-      <c r="P88" s="54"/>
+      <c r="O88" s="48"/>
+      <c r="P88" s="48"/>
     </row>
     <row r="89" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O89" s="54"/>
-      <c r="P89" s="54"/>
+      <c r="O89" s="48"/>
+      <c r="P89" s="48"/>
     </row>
     <row r="90" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O90" s="54"/>
-      <c r="P90" s="54"/>
+      <c r="O90" s="48"/>
+      <c r="P90" s="48"/>
     </row>
     <row r="91" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O91" s="54"/>
-      <c r="P91" s="54"/>
+      <c r="O91" s="48"/>
+      <c r="P91" s="48"/>
     </row>
     <row r="92" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O92" s="54"/>
-      <c r="P92" s="54"/>
+      <c r="O92" s="48"/>
+      <c r="P92" s="48"/>
     </row>
     <row r="93" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O93" s="54"/>
-      <c r="P93" s="54"/>
+      <c r="O93" s="48"/>
+      <c r="P93" s="48"/>
     </row>
     <row r="94" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O94" s="54"/>
-      <c r="P94" s="54"/>
+      <c r="O94" s="48"/>
+      <c r="P94" s="48"/>
     </row>
     <row r="95" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O95" s="54"/>
-      <c r="P95" s="54"/>
+      <c r="O95" s="48"/>
+      <c r="P95" s="48"/>
     </row>
     <row r="96" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O96" s="54"/>
-      <c r="P96" s="54"/>
+      <c r="O96" s="48"/>
+      <c r="P96" s="48"/>
     </row>
     <row r="97" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O97" s="54"/>
-      <c r="P97" s="54"/>
+      <c r="O97" s="48"/>
+      <c r="P97" s="48"/>
     </row>
     <row r="98" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O98" s="54"/>
-      <c r="P98" s="54"/>
+      <c r="O98" s="48"/>
+      <c r="P98" s="48"/>
     </row>
     <row r="99" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O99" s="54"/>
-      <c r="P99" s="54"/>
+      <c r="O99" s="48"/>
+      <c r="P99" s="48"/>
     </row>
     <row r="100" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O100" s="54"/>
-      <c r="P100" s="54"/>
+      <c r="O100" s="48"/>
+      <c r="P100" s="48"/>
     </row>
     <row r="101" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O101" s="54"/>
-      <c r="P101" s="54"/>
+      <c r="O101" s="48"/>
+      <c r="P101" s="48"/>
     </row>
     <row r="102" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O102" s="54"/>
-      <c r="P102" s="54"/>
+      <c r="O102" s="48"/>
+      <c r="P102" s="48"/>
     </row>
     <row r="103" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O103" s="54"/>
-      <c r="P103" s="54"/>
+      <c r="O103" s="48"/>
+      <c r="P103" s="48"/>
     </row>
     <row r="104" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O104" s="54"/>
-      <c r="P104" s="54"/>
+      <c r="O104" s="48"/>
+      <c r="P104" s="48"/>
     </row>
     <row r="105" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O105" s="54"/>
-      <c r="P105" s="54"/>
+      <c r="O105" s="48"/>
+      <c r="P105" s="48"/>
     </row>
     <row r="106" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O106" s="54"/>
-      <c r="P106" s="54"/>
+      <c r="O106" s="48"/>
+      <c r="P106" s="48"/>
     </row>
     <row r="107" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O107" s="54"/>
-      <c r="P107" s="54"/>
+      <c r="O107" s="48"/>
+      <c r="P107" s="48"/>
     </row>
     <row r="108" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O108" s="54"/>
-      <c r="P108" s="54"/>
+      <c r="O108" s="48"/>
+      <c r="P108" s="48"/>
     </row>
     <row r="109" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O109" s="54"/>
-      <c r="P109" s="54"/>
+      <c r="O109" s="48"/>
+      <c r="P109" s="48"/>
     </row>
     <row r="110" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O110" s="54"/>
-      <c r="P110" s="54"/>
+      <c r="O110" s="48"/>
+      <c r="P110" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
     <mergeCell ref="N24:O24"/>
     <mergeCell ref="N25:O25"/>
     <mergeCell ref="A1:XFD2"/>
@@ -17364,9 +17763,12 @@
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="A22:E30"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F9" r:id="rId1" display="https://finbox.com/NASDAQGS:ODFL/explorer/revenue_proj" xr:uid="{8F785A48-47AA-9C46-A113-FB5D7A0A5C95}"/>
+    <hyperlink ref="F9" r:id="rId1" display="https://finbox.com/NASDAQGS:ODFL/explorer/revenue_proj" xr:uid="{762EBAF4-87DA-604E-9109-97C63D940A2B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Industrials/Old Dominion Freight Line.xlsx
+++ b/Industrials/Old Dominion Freight Line.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Industrials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB117A0-D272-8E42-92A4-1F2FED6E84FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ABD62DF-83A7-894E-BD76-470473D24C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -1397,7 +1397,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1722,8 +1722,11 @@
     <xf numFmtId="0" fontId="15" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1756,11 +1759,14 @@
       <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Commodities"/>
+      <sheetName val="Basic Materials"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="GARP"/>
+      <sheetName val="Fidelity"/>
+      <sheetName val="Schwab"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
+      <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -1778,7 +1784,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.3360000000000003E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1790,6 +1796,9 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1917,11 +1926,11 @@
     <v>Powered by Refinitiv</v>
     <v>438.05</v>
     <v>277.49</v>
-    <v>1.0405</v>
-    <v>-3.47</v>
-    <v>-8.9580000000000007E-3</v>
-    <v>1.92</v>
-    <v>5.0010000000000002E-3</v>
+    <v>1.0296000000000001</v>
+    <v>-5.54</v>
+    <v>-1.4774000000000001E-2</v>
+    <v>0.19</v>
+    <v>5.1429999999999998E-4</v>
     <v>USD</v>
     <v>Old Dominion Freight Line, Inc. is a North American less-than-truckload (LTL) motor carriers. The Company provides regional, inter-regional and national LTL services through a single integrated, union-free organization. Its service offerings include expedited transportation, which is provided through a network of service centers located throughout the continental United States. It offers a range of value-added services including container drayage, truckload brokerage, and supply chain consulting. It operates approximately 255 service center locations, of which the Company owns 231 and leases 24. Its service centers are responsible for the pickup and delivery of freight within their local service area. Its system offers its customers access to information such as freight tracking, shipping documents, rate quotes, rate databases, and account activity. These centralized systems and its customer service department provide its customers with a single point of contact to access information.</v>
     <v>23471</v>
@@ -1929,25 +1938,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>500 Old Dominion Way, THOMASVILLE, NC, 27360 US</v>
-    <v>393</v>
+    <v>380.54</v>
     <v>Freight &amp; Logistics Services</v>
     <v>Stock</v>
-    <v>45259.897734767968</v>
+    <v>45269.036296654689</v>
     <v>0</v>
-    <v>382.14</v>
-    <v>42268450000</v>
+    <v>369.01499999999999</v>
+    <v>40916530000</v>
     <v>OLD DOMINION FREIGHT LINE, INC.</v>
     <v>OLD DOMINION FREIGHT LINE, INC.</v>
-    <v>388.71</v>
-    <v>34.174300000000002</v>
-    <v>387.38</v>
-    <v>383.91</v>
-    <v>385.83</v>
+    <v>373.8</v>
+    <v>33.380299999999998</v>
+    <v>374.99</v>
+    <v>369.45</v>
+    <v>369.64</v>
     <v>109113600</v>
     <v>ODFL</v>
     <v>OLD DOMINION FREIGHT LINE, INC. (XNAS:ODFL)</v>
-    <v>697604</v>
-    <v>679962</v>
+    <v>1032999</v>
+    <v>655474</v>
     <v>1950</v>
   </rv>
   <rv s="2">
@@ -15875,7 +15884,7 @@
   <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15892,7 +15901,7 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="53" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>42268450000</v>
+        <v>40916530000</v>
       </c>
       <c r="B3" s="54" t="s">
         <v>241</v>
@@ -15920,14 +15929,14 @@
       </c>
       <c r="I3" s="58">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>17730541405.082294</v>
+        <v>17571565363.569668</v>
       </c>
       <c r="J3" s="59" t="s">
         <v>204</v>
       </c>
       <c r="K3" s="60">
         <f>(Financials!O172*-1)/Model!A3</f>
-        <v>3.6499090929523084E-3</v>
+        <v>3.7705054656394371E-3</v>
       </c>
       <c r="L3" s="61" t="s">
         <v>249</v>
@@ -15972,14 +15981,14 @@
       </c>
       <c r="I4" s="49">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>15504411056.945179</v>
+        <v>15360934369.460293</v>
       </c>
       <c r="J4" s="64" t="s">
         <v>211</v>
       </c>
       <c r="K4" s="66" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-8.9580000000000007E-3</v>
+        <v>-1.4774000000000001E-2</v>
       </c>
       <c r="L4" s="67" t="s">
         <v>250</v>
@@ -16024,14 +16033,14 @@
       </c>
       <c r="I5" s="49">
         <f>I4+G5-G6</f>
-        <v>15479582056.945179</v>
+        <v>15336105369.460293</v>
       </c>
       <c r="J5" s="64" t="s">
         <v>217</v>
       </c>
       <c r="K5" s="69" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>383.91</v>
+        <v>369.45</v>
       </c>
       <c r="L5" s="70" t="s">
         <v>205</v>
@@ -16051,7 +16060,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="73">
         <f>O20/F10</f>
-        <v>7.186067664059844</v>
+        <v>6.9562274736484193</v>
       </c>
       <c r="B6" s="63" t="s">
         <v>220</v>
@@ -16079,14 +16088,14 @@
       </c>
       <c r="I6" s="66">
         <f>N25</f>
-        <v>9.7087324564619298E-2</v>
+        <v>9.7784760305631324E-2</v>
       </c>
       <c r="J6" s="64" t="s">
         <v>210</v>
       </c>
       <c r="K6" s="52">
         <f>I5/G4</f>
-        <v>158.83782740258835</v>
+        <v>157.36559609562005</v>
       </c>
       <c r="L6" s="74" t="s">
         <v>212</v>
@@ -16106,14 +16115,14 @@
     <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="75">
         <f>O20/F12</f>
-        <v>34.420561889250813</v>
+        <v>33.319649837133554</v>
       </c>
       <c r="B7" s="76" t="s">
         <v>224</v>
       </c>
       <c r="C7" s="77">
         <f>F15/A3</f>
-        <v>1.9991270084424671E-2</v>
+        <v>2.065180014043224E-2</v>
       </c>
       <c r="D7" s="76" t="s">
         <v>248</v>
@@ -16140,7 +16149,7 @@
       </c>
       <c r="K7" s="83">
         <f>K6/K5-1</f>
-        <v>-0.58626285482902674</v>
+        <v>-0.57405441576500182</v>
       </c>
       <c r="L7" s="84" t="s">
         <v>218</v>
@@ -16467,7 +16476,7 @@
       </c>
       <c r="O14" s="102">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.3360000000000003E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="48"/>
       <c r="Q14" s="48"/>
@@ -16619,7 +16628,7 @@
       </c>
       <c r="O17" s="112">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.7411200000000003E-2</v>
+        <v>9.8120700000000005E-2</v>
       </c>
       <c r="P17" s="48"/>
       <c r="Q17" s="48"/>
@@ -16702,24 +16711,24 @@
       </c>
       <c r="O20" s="118">
         <f>A3</f>
-        <v>42268450000</v>
+        <v>40916530000</v>
       </c>
       <c r="P20" s="48"/>
       <c r="Q20" s="48"/>
       <c r="R20" s="48"/>
     </row>
     <row r="21" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="131" t="str" cm="1">
+      <c r="A21" s="132" t="str" cm="1">
         <f t="array" ref="A21">_FV(A1,"Industry")</f>
         <v>Freight &amp; Logistics Services</v>
       </c>
-      <c r="B21" s="131"/>
-      <c r="C21" s="132" cm="1">
-        <f t="array" ref="C21">_FV(A1,"Year incorporated",TRUE)</f>
+      <c r="B21" s="132"/>
+      <c r="C21" s="132"/>
+      <c r="D21" s="133" cm="1">
+        <f t="array" ref="D21">_FV(A1,"Year incorporated",TRUE)</f>
         <v>1950</v>
       </c>
-      <c r="D21" s="132"/>
-      <c r="E21" s="132"/>
+      <c r="E21" s="133"/>
       <c r="F21" s="50"/>
       <c r="G21" s="50"/>
       <c r="H21" s="50"/>
@@ -16732,7 +16741,7 @@
       </c>
       <c r="O21" s="118">
         <f>O19+O20</f>
-        <v>42348420000</v>
+        <v>40996500000</v>
       </c>
       <c r="P21" s="48"/>
       <c r="Q21" s="48"/>
@@ -16760,7 +16769,7 @@
       </c>
       <c r="O22" s="120">
         <f>(O19/O21)</f>
-        <v>1.8883821403490378E-3</v>
+        <v>1.9506543241496225E-3</v>
       </c>
       <c r="P22" s="48"/>
       <c r="Q22" s="48"/>
@@ -16785,7 +16794,7 @@
       </c>
       <c r="O23" s="121">
         <f>O20/O21</f>
-        <v>0.99811161785965097</v>
+        <v>0.99804934567585035</v>
       </c>
       <c r="P23" s="48"/>
       <c r="Q23" s="48"/>
@@ -16829,7 +16838,7 @@
       <c r="M25" s="50"/>
       <c r="N25" s="124">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>9.7087324564619298E-2</v>
+        <v>9.7784760305631324E-2</v>
       </c>
       <c r="O25" s="125"/>
       <c r="P25" s="48"/>
@@ -17763,9 +17772,9 @@
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:E21"/>
     <mergeCell ref="A22:E30"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F9" r:id="rId1" display="https://finbox.com/NASDAQGS:ODFL/explorer/revenue_proj" xr:uid="{762EBAF4-87DA-604E-9109-97C63D940A2B}"/>
